--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{A1FDCFDE-0214-49ED-A906-84FCA9D46CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB81D5EE-C611-4FD8-AAA9-7CA664648B92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EC33F4-8350-4AA1-B1F1-2307314A3011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3432" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục mới" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="290">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -1431,7 +1431,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>87</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>88</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>89</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>99</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>100</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>102</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>104</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>107</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>108</v>
       </c>
@@ -2047,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCF2B82-3B27-44ED-82B1-97FF8B97ED71}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3921,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3963,133 +3963,69 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>93</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6FA4FD-0C88-4D9D-AA39-23A312478C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F2B509-46A3-45BD-AB73-C6C95E9A17E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục mới" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Danh mục mới'!$A$1:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Danh mục mới'!$A$1:$G$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="288">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -753,9 +753,6 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>Mã số thuế người bán</t>
-  </si>
-  <si>
     <t>0100112437-051</t>
   </si>
   <si>
@@ -805,9 +802,6 @@
   </si>
   <si>
     <t>2802850189</t>
-  </si>
-  <si>
-    <t>Tên người bán</t>
   </si>
   <si>
     <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
@@ -919,7 +913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,12 +938,6 @@
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1021,28 +1009,32 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,10 +1047,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,8 +1065,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,534 +1360,672 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(A2,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0101159195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G3" t="str">
+        <f>VLOOKUP(A3,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0101360697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(A4,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0108683721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" t="e">
+        <f>VLOOKUP(A5,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" t="e">
+        <f>VLOOKUP(A6,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(A7,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0310439453-001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(A8,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0101507727-001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" t="e">
+        <f>VLOOKUP(A9,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(A10,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0106136096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" t="e">
+        <f>VLOOKUP(A11,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(A12,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0104789847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(A13,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0107486248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(A14,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0106765288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(A15,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0305616442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(A16,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0109534271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(A17,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0105670033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(A18,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0102755063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(A19,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0102343655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" t="e">
+        <f>VLOOKUP(A20,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" t="e">
+        <f>VLOOKUP(A21,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(A22,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0107864972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" t="e">
+        <f>VLOOKUP(A23,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(A24,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0105283179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(A25,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0105957237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(A26,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0107762787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(A27,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0108386863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(A28,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0500570248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="e">
+        <f>VLOOKUP(A29,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(A30,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0102190423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(A31,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0108995054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(A32,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0108915796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(A33,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0107322095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(A34,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0106768200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="e">
+        <f>VLOOKUP(A35,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="e">
+        <f>VLOOKUP(A36,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" t="e">
+        <f>VLOOKUP(A37,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="e">
+        <f>VLOOKUP(A38,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" t="e">
+        <f>VLOOKUP(A39,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="e">
+        <f>VLOOKUP(A40,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(A41,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0103867884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(A42,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0312002637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(A43,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0106696387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" t="e">
+        <f>VLOOKUP(A44,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(A45,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0100101114-042</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(A46,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0106869738-002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11" t="str">
-        <f>VLOOKUP(B2,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0101159195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="11" t="str">
-        <f>VLOOKUP(B3,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0101360697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="11" t="str">
-        <f>VLOOKUP(B4,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0108683721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="11" t="e">
-        <f>VLOOKUP(B5,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+      <c r="B47" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" t="e">
+        <f>VLOOKUP(A47,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="11" t="str">
-        <f>VLOOKUP(B7,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0310439453-001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11" t="str">
-        <f>VLOOKUP(B8,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0101507727-001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="11" t="str">
-        <f>VLOOKUP(B10,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106136096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="11" t="str">
-        <f>VLOOKUP(B12,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0104789847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="11" t="str">
-        <f>VLOOKUP(B13,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0107486248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="11" t="str">
-        <f>VLOOKUP(B14,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106765288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="11" t="str">
-        <f>VLOOKUP(B15,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0305616442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="11" t="str">
-        <f>VLOOKUP(B16,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0109534271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="11" t="str">
-        <f>VLOOKUP(B17,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0105670033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="11" t="str">
-        <f>VLOOKUP(B18,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0102755063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="11" t="str">
-        <f>VLOOKUP(B19,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0102343655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="11" t="str">
-        <f>VLOOKUP(B22,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0107864972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="11" t="str">
-        <f>VLOOKUP(B24,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0105283179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="11" t="str">
-        <f>VLOOKUP(B25,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0105957237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="11" t="str">
-        <f>VLOOKUP(B26,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0107762787</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="11" t="str">
-        <f>VLOOKUP(B27,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0108386863</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="11" t="str">
-        <f>VLOOKUP(B28,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0500570248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="11" t="str">
-        <f>VLOOKUP(B30,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0102190423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="11" t="str">
-        <f>VLOOKUP(B31,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0108995054</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="11" t="str">
-        <f>VLOOKUP(B32,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0108915796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="11" t="str">
-        <f>VLOOKUP(B33,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0107322095</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="11" t="str">
-        <f>VLOOKUP(B34,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106768200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="11" t="str">
-        <f>VLOOKUP(B41,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0103867884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="11" t="str">
-        <f>VLOOKUP(B42,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0312002637</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="11" t="str">
-        <f>VLOOKUP(B43,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106696387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="11" t="str">
-        <f>VLOOKUP(B45,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0100101114-042</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="48" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="11" t="str">
-        <f>VLOOKUP(B46,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106869738-002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="G48" t="str">
+        <f>VLOOKUP(A48,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0106488901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(A49,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>0100956381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="11" t="str">
-        <f>VLOOKUP(B48,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106488901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="G50" t="e">
+        <f>VLOOKUP(A50,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="11" t="str">
-        <f>VLOOKUP(B49,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0100956381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="11" t="str">
-        <f>VLOOKUP(B51,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+      <c r="G51" t="str">
+        <f>VLOOKUP(A51,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
         <v>0302249586-001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B52" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C52" s="11" t="str">
-        <f>VLOOKUP(B52,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
+      <c r="B52" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(A52,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
         <v>0300792451-004</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C52" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
       <filters>
         <filter val="#N/A"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{74092DF5-69A0-48E9-AC0A-AB8202BEE9D1}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{9C7ABB55-0AE0-467D-9530-A8A3FC698884}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1912,1832 +2050,1832 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="D33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="D41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7" t="s">
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="D52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="8">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7" t="s">
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7" t="s">
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="8">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7" t="s">
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7" t="s">
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7" t="s">
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E61" s="8">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="8">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="D62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="8">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7" t="s">
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="8">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="D64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E65" s="8">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="8">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7" t="s">
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="8">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="8">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7" t="s">
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7" t="s">
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="8">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7" t="s">
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="8">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7" t="s">
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="8">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7" t="s">
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="8">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="8">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7" t="s">
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="8">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7" t="s">
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E77" s="8">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7" t="s">
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E78" s="8">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7" t="s">
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E79" s="8">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7" t="s">
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9" t="s">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3746,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3763,160 +3901,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>274</v>
-      </c>
+    <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F2B509-46A3-45BD-AB73-C6C95E9A17E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DB1119-F2F5-447A-B564-9B5CB53EB5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Danh mục cũ" sheetId="2" r:id="rId2"/>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Danh mục mới'!$A$1:$G$52</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="288">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -1034,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1065,12 +1062,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1359,11 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B50"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,7 +1373,7 @@
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,626 +1393,415 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="str">
-        <f>VLOOKUP(A2,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0101159195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G3" t="str">
-        <f>VLOOKUP(A3,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0101360697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G4" t="str">
-        <f>VLOOKUP(A4,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0108683721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G5" t="e">
-        <f>VLOOKUP(A5,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G6" t="e">
-        <f>VLOOKUP(A6,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G7" t="str">
-        <f>VLOOKUP(A7,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0310439453-001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="str">
-        <f>VLOOKUP(A8,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0101507727-001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G9" t="e">
-        <f>VLOOKUP(A9,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G10" t="str">
-        <f>VLOOKUP(A10,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106136096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G11" t="e">
-        <f>VLOOKUP(A11,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="str">
-        <f>VLOOKUP(A12,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0104789847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G13" t="str">
-        <f>VLOOKUP(A13,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0107486248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G14" t="str">
-        <f>VLOOKUP(A14,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106765288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G15" t="str">
-        <f>VLOOKUP(A15,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0305616442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G16" t="str">
-        <f>VLOOKUP(A16,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0109534271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G17" t="str">
-        <f>VLOOKUP(A17,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0105670033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G18" t="str">
-        <f>VLOOKUP(A18,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0102755063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(A19,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0102343655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G20" t="e">
-        <f>VLOOKUP(A20,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G21" t="e">
-        <f>VLOOKUP(A21,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G22" t="str">
-        <f>VLOOKUP(A22,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0107864972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>244</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G23" t="e">
-        <f>VLOOKUP(A23,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G24" t="str">
-        <f>VLOOKUP(A24,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0105283179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G25" t="str">
-        <f>VLOOKUP(A25,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0105957237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G26" t="str">
-        <f>VLOOKUP(A26,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0107762787</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G27" t="str">
-        <f>VLOOKUP(A27,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0108386863</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G28" t="str">
-        <f>VLOOKUP(A28,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0500570248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G29" t="e">
-        <f>VLOOKUP(A29,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G30" t="str">
-        <f>VLOOKUP(A30,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0102190423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G31" t="str">
-        <f>VLOOKUP(A31,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0108995054</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G32" t="str">
-        <f>VLOOKUP(A32,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0108915796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G33" t="str">
-        <f>VLOOKUP(A33,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0107322095</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G34" t="str">
-        <f>VLOOKUP(A34,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106768200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>241</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G35" t="e">
-        <f>VLOOKUP(A35,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G36" t="e">
-        <f>VLOOKUP(A36,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G37" t="e">
-        <f>VLOOKUP(A37,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>242</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G38" t="e">
-        <f>VLOOKUP(A38,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G39" t="e">
-        <f>VLOOKUP(A39,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G40" t="e">
-        <f>VLOOKUP(A40,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP(A41,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0103867884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP(A42,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0312002637</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G43" t="str">
-        <f>VLOOKUP(A43,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106696387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G44" t="e">
-        <f>VLOOKUP(A44,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G45" t="str">
-        <f>VLOOKUP(A45,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0100101114-042</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G46" t="str">
-        <f>VLOOKUP(A46,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106869738-002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G47" t="e">
-        <f>VLOOKUP(A47,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G48" t="str">
-        <f>VLOOKUP(A48,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0106488901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G49" t="str">
-        <f>VLOOKUP(A49,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0100956381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G50" t="e">
-        <f>VLOOKUP(A50,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="G51" t="str">
-        <f>VLOOKUP(A51,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0302249586-001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G52" t="str">
-        <f>VLOOKUP(A52,'Danh mục cũ'!$F$2:$F$79,1,0)</f>
-        <v>0300792451-004</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{74092DF5-69A0-48E9-AC0A-AB8202BEE9D1}">
       <formula1>0</formula1>
@@ -3884,109 +3670,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>256</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
@@ -4123,6 +3906,10 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DB1119-F2F5-447A-B564-9B5CB53EB5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29B348-14A3-4781-96F2-46F35A1E2EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh mục mới" sheetId="1" r:id="rId1"/>
-    <sheet name="Danh mục cũ" sheetId="2" r:id="rId2"/>
-    <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId3"/>
+    <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
+    <sheet name="Danh mục mới" sheetId="1" r:id="rId2"/>
+    <sheet name="Danh mục cũ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1031,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,13 +1062,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1356,6 +1355,263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{C70705B5-692C-45E2-8C36-A91ED367D831}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F5F4199F-FB44-425D-8A74-B800480FA37D}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -1816,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CA4A08-7BCB-48E9-A795-2712D547D108}">
   <dimension ref="A1:G80"/>
   <sheetViews>
@@ -3666,262 +3922,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.77734375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{C70705B5-692C-45E2-8C36-A91ED367D831}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F5F4199F-FB44-425D-8A74-B800480FA37D}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1750C110-958D-40F3-8B5D-28ABDF78D686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -906,7 +906,7 @@
     <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
   </si>
   <si>
-    <t>Check</t>
+    <t>CÔNG TY TNHH AN PHÁT HÀ NỘI</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1030,24 +1030,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,10 +1076,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1378,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,8 +1396,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="10">
+        <v>106062775</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
@@ -1628,15 +1615,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,7 +1637,7 @@
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,14 +1653,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1680,7 +1665,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1688,7 +1673,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>168</v>
       </c>
@@ -1696,7 +1681,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>251</v>
       </c>
@@ -1704,7 +1689,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>247</v>
       </c>
@@ -1712,7 +1697,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
@@ -1720,7 +1705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1728,7 +1713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>240</v>
       </c>
@@ -1736,7 +1721,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
@@ -1744,7 +1729,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>252</v>
       </c>
@@ -1752,7 +1737,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1760,7 +1745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
@@ -1768,7 +1753,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
@@ -1776,7 +1761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>199</v>
       </c>
@@ -1784,7 +1769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>185</v>
       </c>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29B348-14A3-4781-96F2-46F35A1E2EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1750C110-958D-40F3-8B5D-28ABDF78D686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="289">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH AN PHÁT HÀ NỘI</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,8 +1396,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="10">
+        <v>106062775</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
@@ -1608,6 +1615,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29B348-14A3-4781-96F2-46F35A1E2EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="289">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1027,11 +1030,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,6 +1089,10 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1358,7 +1378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1613,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,7 +1649,7 @@
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,11 +1665,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G1" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1680,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1665,7 +1688,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>168</v>
       </c>
@@ -1673,7 +1696,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>251</v>
       </c>
@@ -1681,7 +1704,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>247</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
@@ -1697,7 +1720,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1705,7 +1728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>240</v>
       </c>
@@ -1713,7 +1736,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
@@ -1721,7 +1744,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>252</v>
       </c>
@@ -1729,7 +1752,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1737,7 +1760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
@@ -1745,7 +1768,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
@@ -1753,7 +1776,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>199</v>
       </c>
@@ -1761,7 +1784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>185</v>
       </c>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1216E323-830B-4ED9-931D-D2F1D9D05823}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
     <sheet name="Danh mục mới" sheetId="1" r:id="rId2"/>
     <sheet name="Danh mục cũ" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="289">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -1379,7 +1380,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,73 +1413,141 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+    <row r="2" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
+      <c r="A11" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
+      <c r="A14" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -1633,6 +1702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1672,28 +1742,37 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>101159195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>101360697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>169</v>
+      </c>
+      <c r="G4">
+        <v>108683721</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
@@ -1712,20 +1791,26 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
@@ -1736,12 +1821,15 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>259</v>
+      </c>
+      <c r="G10">
+        <v>106136096</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
@@ -1752,71 +1840,95 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>104789847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>107486248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>106765288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>305616442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>109534271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>105670033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>102755063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>102343655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>249</v>
       </c>
@@ -1824,7 +1936,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>248</v>
       </c>
@@ -1832,15 +1944,18 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>107864972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>244</v>
       </c>
@@ -1848,47 +1963,62 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>105283179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>105957237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>107762787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>108386863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>500570248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>245</v>
       </c>
@@ -1896,47 +2026,62 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>102190423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>108995054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>108915796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>107322095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>106768200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>241</v>
       </c>
@@ -1944,7 +2089,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>238</v>
       </c>
@@ -1952,7 +2097,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>243</v>
       </c>
@@ -1960,7 +2105,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>242</v>
       </c>
@@ -1968,7 +2113,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>250</v>
       </c>
@@ -1976,7 +2121,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>246</v>
       </c>
@@ -1984,31 +2129,40 @@
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>103867884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>312002637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>106696387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>237</v>
       </c>
@@ -2016,23 +2170,29 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>236</v>
       </c>
@@ -2040,23 +2200,29 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>106488901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>100956381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>239</v>
       </c>
@@ -2064,23 +2230,34 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="G52" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{74092DF5-69A0-48E9-AC0A-AB8202BEE9D1}">
       <formula1>0</formula1>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1216E323-830B-4ED9-931D-D2F1D9D05823}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2373D0A9-BE7B-45F6-B7E7-F73C707FAB31}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -751,163 +751,163 @@
     <t>Tổng</t>
   </si>
   <si>
+    <t>2300994740</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BKAV</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
+  </si>
+  <si>
+    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>0109126547</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
+  </si>
+  <si>
+    <t>0106209516</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
+  </si>
+  <si>
+    <t>2802850189</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
+  </si>
+  <si>
+    <t>0313175103-001</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>0109642326</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
+  </si>
+  <si>
+    <t>0108140108</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>0108715042</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
+  </si>
+  <si>
+    <t>0106308732</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
+  </si>
+  <si>
+    <t>0101863203</t>
+  </si>
+  <si>
+    <t>VŨ XUÂN QUỲNH</t>
+  </si>
+  <si>
+    <t>0107998616</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
+  </si>
+  <si>
+    <t>0107776927</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
+  </si>
+  <si>
+    <t>0500475192</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HẢI LINH</t>
+  </si>
+  <si>
+    <t>0108743064</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>0100112437-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
+  </si>
+  <si>
     <t>0100112437-051</t>
   </si>
   <si>
-    <t>0100112437-056</t>
-  </si>
-  <si>
-    <t>0101863203</t>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
   </si>
   <si>
     <t>0102196915</t>
   </si>
   <si>
-    <t>0106209516</t>
-  </si>
-  <si>
-    <t>0106308732</t>
-  </si>
-  <si>
-    <t>0107776927</t>
-  </si>
-  <si>
-    <t>0107998616</t>
-  </si>
-  <si>
-    <t>0108140108</t>
-  </si>
-  <si>
-    <t>0108715042</t>
-  </si>
-  <si>
-    <t>0108743064</t>
-  </si>
-  <si>
-    <t>0109126547</t>
-  </si>
-  <si>
-    <t>0109642326</t>
-  </si>
-  <si>
-    <t>0313175103-001</t>
-  </si>
-  <si>
-    <t>0500475192</t>
-  </si>
-  <si>
-    <t>2300994740</t>
-  </si>
-  <si>
-    <t>2802850189</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BKAV</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
-  </si>
-  <si>
-    <t>VŨ XUÂN QUỲNH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HẢI LINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
-  </si>
-  <si>
-    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
-  </si>
-  <si>
     <t>Công ty cổ phần mạng trực tuyến META</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -1379,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,71 +1415,71 @@
     </row>
     <row r="2" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>272</v>
@@ -1487,66 +1487,66 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1687,11 +1687,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{C70705B5-692C-45E2-8C36-A91ED367D831}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{627115FB-1C13-4357-B663-50817F7E1116}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F5F4199F-FB44-425D-8A74-B800480FA37D}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F6993AE0-6585-47E4-8A66-88C180D8DE5A}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1702,11 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,32 +1738,32 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G2">
         <v>101159195</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="G3">
         <v>101360697</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>168</v>
       </c>
@@ -1777,32 +1776,32 @@
     </row>
     <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1815,18 +1814,18 @@
     </row>
     <row r="9" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="G10">
         <v>106136096</v>
@@ -1834,13 +1833,13 @@
     </row>
     <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>104789847</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>107486248</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>106765288</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>199</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>305616442</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>185</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>109534271</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
@@ -1906,23 +1905,23 @@
         <v>105670033</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="G18">
         <v>102755063</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G19">
         <v>102343655</v>
@@ -1930,21 +1929,21 @@
     </row>
     <row r="20" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>151</v>
       </c>
@@ -1957,24 +1956,24 @@
     </row>
     <row r="23" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G24">
         <v>105283179</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
@@ -1985,18 +1984,18 @@
         <v>105957237</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="G26">
         <v>107762787</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -2007,12 +2006,12 @@
         <v>108386863</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="G28">
         <v>500570248</v>
@@ -2020,24 +2019,24 @@
     </row>
     <row r="29" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="G30">
         <v>102190423</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>180</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>108995054</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>177</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>108915796</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>133</v>
       </c>
@@ -2070,12 +2069,12 @@
         <v>107322095</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="G34">
         <v>106768200</v>
@@ -2083,7 +2082,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>272</v>
@@ -2091,45 +2090,45 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -2140,23 +2139,23 @@
         <v>103867884</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="G42">
         <v>312002637</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="G43">
         <v>106696387</v>
@@ -2164,13 +2163,13 @@
     </row>
     <row r="44" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2181,12 +2180,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
         <v>127</v>
@@ -2194,29 +2193,29 @@
     </row>
     <row r="47" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="G48">
         <v>106488901</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="G49">
         <v>100956381</v>
@@ -2224,46 +2223,42 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="22.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{74092DF5-69A0-48E9-AC0A-AB8202BEE9D1}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F421531F-474C-4E95-9952-9484F0605958}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{9C7ABB55-0AE0-467D-9530-A8A3FC698884}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{930ED820-E054-4372-AFFE-559ADF3F1978}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2276,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CA4A08-7BCB-48E9-A795-2712D547D108}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFAD729F-66B4-45BB-902F-B2F774E084CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94616EC2-5F34-40AD-B30A-D2E9FD149D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -138,17 +138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -191,11 +180,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,33 +207,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +522,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,228 +536,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -770,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E52"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,13 +794,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -803,219 +809,226 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F421531F-474C-4E95-9952-9484F0605958}">
       <formula1>0</formula1>
@@ -1035,7 +1048,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,13 +1059,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -5,21 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94616EC2-5F34-40AD-B30A-D2E9FD149D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744FAB91-2C0B-4D4D-9BAC-EF5C3E68FF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
     <sheet name="Danh mục mới" sheetId="1" r:id="rId2"/>
-    <sheet name="Danh mục cũ" sheetId="4" r:id="rId3"/>
+    <sheet name="Danh mục cũ" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$52</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="237">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -59,6 +58,696 @@
   <si>
     <t>Tài khoản 
 công nợ phải trả</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mã nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Công nợ</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>0100101114-042</t>
+  </si>
+  <si>
+    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
+  </si>
+  <si>
+    <t>Tổ dân phố số 5 Mễ Trì Hạ- P Mễ Trì- Q Nam Từ Liêm- TP Hà Nội</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0100233368</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐỨC NHÂN</t>
+  </si>
+  <si>
+    <t>Số 23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0100956381</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
+  </si>
+  <si>
+    <t>Số 222 Trần Duy Hưng- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - VN</t>
+  </si>
+  <si>
+    <t>0101159195</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
+  </si>
+  <si>
+    <t>Lô CN7- Cụm CN Từ Liêm- P Minh Khai- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>0101360697</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phầ BKAV</t>
+  </si>
+  <si>
+    <t>0101507727-001</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>Xóm Lẽ, Thôn Tam Á, Xã Gia Đông, Huyện Thuận Thành, Tỉnh Bắc Ninh</t>
+  </si>
+  <si>
+    <t>0102018260</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN PICO</t>
+  </si>
+  <si>
+    <t>Số 229 phố Tây Sơn, Phường Ngã Tư Sở, Quân Đống Đa, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>0102042513</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ALFRESCO'S Á CHÂU</t>
+  </si>
+  <si>
+    <t>23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0102190423</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP THỰC PHẨM THIÊN VƯƠNG</t>
+  </si>
+  <si>
+    <t>Số 30 Nguyễn Khang- P Yên Hòa- Q Cầu Giấy- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>0102265125</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIM PHÚ</t>
+  </si>
+  <si>
+    <t>SN 63- ngõ 38 Phố Ngô Sĩ Liên- P Văn Miếu- Q Đống Đa- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>0102343655</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP DỊCH VỤ SUDICO</t>
+  </si>
+  <si>
+    <t>Tầng M3- Tòa nhà CT1- Khu đô thị Mỹ Đình- P Mỹ Đình- Q Nam Từ Liê- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>0102354569</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÚC HƯNG THỊNH</t>
+  </si>
+  <si>
+    <t>Tầng 19, Tòa nhà Pacific Place, số 83B Lý Thường Kiệt - Phường Trần Hưng Đạo - Quận Hoàn Kiếm - Hà Nội.</t>
+  </si>
+  <si>
+    <t>0102516308</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN MEDIAMART VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 29F Hai Bà Trưng - Phường Tràng Tiền - Quận Hoàn Kiếm - Hà Nội.</t>
+  </si>
+  <si>
+    <t>0102721191</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI DỊCH VỤ CỔNG VÀNG</t>
+  </si>
+  <si>
+    <t>Số 60, phố Giang Văn Minh, Phường Đội Cấn, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0102755063</t>
+  </si>
+  <si>
+    <t>Công ty TNHH xuất nhập khẩu và thương mại du lịch Ngân Hà</t>
+  </si>
+  <si>
+    <t>0103269690</t>
+  </si>
+  <si>
+    <t>cơ quan BHXH Nam Từ Liêm</t>
+  </si>
+  <si>
+    <t>0103867884</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Số 96, phố Lò Đúc, Phường Đống Mác, Quận Hai Bà Trưng, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0104017720</t>
+  </si>
+  <si>
+    <t>KBNN Thường Tín</t>
+  </si>
+  <si>
+    <t>0104095542</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIA NHẬT LINH SUSHIBAR</t>
+  </si>
+  <si>
+    <t>Xóm Đồi, thôn Chi Nê, Xã Trung Hòa, Huyện Chương Mỹ, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0104157213</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN GIẢI PHÁP HỆ THỐNG THÔNG TIN ISS VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tổ 16, cụm dân cư số 5, Phường Thịnh Liệt, Quận Hoàng Mai, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0104255154</t>
+  </si>
+  <si>
+    <t>KBNN Nam Từ Liêm</t>
+  </si>
+  <si>
+    <t>0104625285</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI NGÂN PHÁT</t>
+  </si>
+  <si>
+    <t>Số nhà 12, ngõ 10 Láng Hạ, Phường Thành Công, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0104789847</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
+  </si>
+  <si>
+    <t>Tầng 11 tòa tháp VP Hòa Bình, 106 Hoàng Quốc Việt - Phường Nghĩa Đô - Quận Cầu Giấy - Hà Nội.</t>
+  </si>
+  <si>
+    <t>0104918404-002</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HÀ NỘI- CÔNG TY CỔ PHẦN DỊCH VỤ THƯƠNG MAI TỔNG HỢP VINCOMMERCE</t>
+  </si>
+  <si>
+    <t>Số 7, Đường Bằng Lăng, P Việt Hùng, Q Long Biên, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>0105075813</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KINH DOANH- TM DŨNG MINH</t>
+  </si>
+  <si>
+    <t>Ngõ 80- Phố Hoa Lâm- P Việt Hưng- Q Long Biên- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>0105283179</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP SẢN XUẤT TM VÀ DV TÂN MAI</t>
+  </si>
+  <si>
+    <t>Số 389 Trương Định- P Tân Mai- Q Hoàng Mai- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>0105396084</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TÁP ON NHƯ NGUYỆT</t>
+  </si>
+  <si>
+    <t>Số 21- Lô 14A- Phố Trung Hòa- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - Việt Nam</t>
+  </si>
+  <si>
+    <t>0105670033</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>0105790468</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VẬN TẢI TÂM PHÚ THỊNH</t>
+  </si>
+  <si>
+    <t>Tân Mỹ, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0105957237</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
+  </si>
+  <si>
+    <t>Số 25, phố Gia Quất, Phường Thượng Thanh, Quận Long Biên, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0106129074</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP TƯ VẤN TM VÀ DỊCH VỤ VĨNH THỊNH</t>
+  </si>
+  <si>
+    <t>Thôn Viên Nội- Xã Vân Nội- Huyện Đông Anh- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>0106136096</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Đầu tư và thương mại Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>0106136321</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN DỊCH VỤ VẬN TẢI VÀ DU LỊCH HƯNG HẢI</t>
+  </si>
+  <si>
+    <t>Số 50C, Ngõ 203, đường Trường Chinh, Phường Khương Mai, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0106488901</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI K&amp;K TOÀN CÂU</t>
+  </si>
+  <si>
+    <t>Số 63 đường Vạn Phúc- Tổ dân phố 8- Q Hà Đông- Hà Nội</t>
+  </si>
+  <si>
+    <t>0106661560</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HONEST KITCHEN VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 6, trung tâm Lotte Hà Nội, số 54 Liễu Giai - Phường Cống Vị - Quận Ba Đình - Hà Nội</t>
+  </si>
+  <si>
+    <t>0106696387</t>
+  </si>
+  <si>
+    <t>HOÀNG VĂN ÚT</t>
+  </si>
+  <si>
+    <t>Yên Nhân- Tiên Phong- Mê Linh- Hà Nội</t>
+  </si>
+  <si>
+    <t>0106737918</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN KHÁNH VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Khu Tây Phu, thôn An Hạ, Xã An Thượng, Huyện Hoài Đức, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0106765288</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
+  </si>
+  <si>
+    <t>Số 15, ngõ 60, phố Yên Lạc - Phường Vĩnh Tuy - Quận Hai Bà Trưng - Hà Nội.</t>
+  </si>
+  <si>
+    <t>0106768200</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 1, số 9, ngõ 850 đường Láng, Phường Láng Thượng, Quận Đống Đa, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0106777886</t>
+  </si>
+  <si>
+    <t>Công ty TNHH 678 Hà Nôi</t>
+  </si>
+  <si>
+    <t>0106825441</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ TỔNG HỢP HÙNG HÀ</t>
+  </si>
+  <si>
+    <t>Số 110, Đường Nguyễn Hoàng Tôn, P Xuân La, Q Tây Hồ, TP Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0106869738-002</t>
+  </si>
+  <si>
+    <t>TTKD VNPT- HÀ NỘI- CN TỔNG CÔNG TY DV VIỄN THÔNG</t>
+  </si>
+  <si>
+    <t>Số 75 Đinh Tiên Hoàng- P Tràng Tiền- Q Hoàn Kiếm- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>0107315179</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU LENA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 12, Tòa nhà Licogi 13, số 164 Khuất Duy Tiến - Phường Nhân Chính - Quận Thanh Xuân - Hà Nội.</t>
+  </si>
+  <si>
+    <t>0107322095</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
+  </si>
+  <si>
+    <t>Số 84 Kim Mã, Phường Kim Mã, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0107414772</t>
+  </si>
+  <si>
+    <t>CÔNG TY JCF VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 9 Trần Hưng Đạo, Phường Phan Chu Trinh, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0107486248</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN BIỂN</t>
+  </si>
+  <si>
+    <t>Xóm 3, thôn Phúc Lâm, Xã Phúc Lâm, Huyện Mỹ Đức, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0107658070</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TOP</t>
+  </si>
+  <si>
+    <t>Số 15 Hàng Khay, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0107713980</t>
+  </si>
+  <si>
+    <t>NGUYỄN XUÂN CƯỜNG</t>
+  </si>
+  <si>
+    <t>Thôn Đồi Chè- Xã Thanh Bình - Huyện Chương Mỹ- TP Hà Nội</t>
+  </si>
+  <si>
+    <t>0107762787</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP THẦN BIỂN</t>
+  </si>
+  <si>
+    <t>Tầng 4- số 27 Lê Văn Lương- P Nhân Chính- Q Thanh Xuân- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>0107864972</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>Số nhà 618, ngõ 199/18, đường Hồ Tùng Mậu, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0107939018</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dịch vụ nhà hàng Tuấn Kiệt</t>
+  </si>
+  <si>
+    <t>0108012057</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH BIA RƯỢU VÀ NGK PHÚ SANG</t>
+  </si>
+  <si>
+    <t>Số 16 Phố Lê Quang Đạo, P Phú Đô, Q Nam Từ Liêm, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>0108386863</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
+  </si>
+  <si>
+    <t>Tầng 9A, Tòa nhà Leadvisors Place, 41A Lý Thái Tổ, Phường Lý Thái Tổ, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0108458490</t>
+  </si>
+  <si>
+    <t>Công ty TNHH đào tạo và tư vấn FAT Hà Nội</t>
+  </si>
+  <si>
+    <t>L06-03, KĐTM Dương Nội, Đương Tố Hữu, phường La Khê, quận Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>0108469573</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH DẦU KHÍ TRẦN HỒNG QUÂN</t>
+  </si>
+  <si>
+    <t>Tầng 3- Tòa tháp khách sạn-  số 36 đường Lê Đức Thọ- P Mỹ Đình 2- Q Nam Từ Liêm - TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>0108683721</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>41 Phùng Chí Kiên, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0108704192</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ THƯƠNG MẠI MAMA'S GROUP</t>
+  </si>
+  <si>
+    <t>B10, Dự án tổ hợp công trình hỗn hợp số 53 Triều Khúc, Phường Thanh Xuân Nam, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0108792110</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ VÀ THƯƠNG MẠI VHQ VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 21 ngõ 466/82 Ngô Gia Tự - Phường Đức Giang - Quận Long Biên - Hà Nội.</t>
+  </si>
+  <si>
+    <t>0108915796</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
+  </si>
+  <si>
+    <t>Số A1, Lô DD, Khu Đô thị mới Mỹ Đình - Mễ Trì, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0108995054</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 1, Số B2-26, Khu chức năng đô thị Thành phố Xanh, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0109129509</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại dịch vụ CT Việt</t>
+  </si>
+  <si>
+    <t>0109534271</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Số 19, ngõ 68A đường Đỗ Đức Dục, Phường Mễ Trì, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0300792451-004</t>
+  </si>
+  <si>
+    <t>Chi nhánh Công ty TNHH Nước giải khát Coca-cola Việt Nam tại Hà Nội</t>
+  </si>
+  <si>
+    <t>0302249586-001</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM)</t>
+  </si>
+  <si>
+    <t>Khu B- Khu đô thị mới An Phú - An Khánh- P An Phú- Quận 2- TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0303085267-003</t>
+  </si>
+  <si>
+    <t>Chi nhánh công ty TNHH Thực phẩm Tốt Lành tại Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 324  phố Tây Sơn, phường Ngã Tư Sở, quận Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>0303217354-001</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN THẾ GIỚI DI ĐỘNG</t>
+  </si>
+  <si>
+    <t>Số 146, Phố Kim  Mã, P Kim Mã, Q Ba Đình, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>0305616442</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 60, Đường Trường Sơn, P2, Q Tân Bình, TPHCM</t>
+  </si>
+  <si>
+    <t>0310439453-001</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MTV CUNG VÀ CẦU- CN HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Số 16 Thị Cấm- P Xuân Phương- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>0311609355</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BÁN LẺ KỸ THUẬT SỐ FPT</t>
+  </si>
+  <si>
+    <t>261-263 Khánh Hội - phường 05 - Quận 4 - TP Hồ Chí Minh.</t>
+  </si>
+  <si>
+    <t>0312002637</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM HORECA</t>
+  </si>
+  <si>
+    <t>49 đường số 9- Cư Xá Bình Thới- Phường 8- Quận 11- TP Hồ Chí Minh- Việt Nam</t>
+  </si>
+  <si>
+    <t>0313073253-001</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CESCO VIỆT NAM- CN HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Số 12- BT1- KĐT Resco- P Cổ Nhuế 2- Q Bắc Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>0313168515-006</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN PIZZA 4PS - NHÀ HÀNG PIZZA 4PS TRÀNG TIỀN</t>
+  </si>
+  <si>
+    <t>Số 43 Tràng Tiền, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0313894637-001</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH THỰC PHẨM &amp; ĐỒ UỐNG SW</t>
+  </si>
+  <si>
+    <t>Tầng 3, tòa nhà Sân tập Golf Phương Đông, phố Tân Mỹ, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0315161593-020</t>
+  </si>
+  <si>
+    <t>CN CÔNG TY CP TẬP ĐOÀN MAI LINH TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Lô C2C- Cụm SX tiểu thủ công nghiệp và công nghiệp nhỏ- P Dịch Vọng Hậu- Q Cầu Giấy- TP Hà Nội</t>
+  </si>
+  <si>
+    <t>0316554156</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KINH DOANH QUỐC TẾ KIM SƠN</t>
+  </si>
+  <si>
+    <t>15/2/15 Cầu Xéo, Phường Tân Quý, Quận Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>0500570248</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
+  </si>
+  <si>
+    <t>Cụm CN Hà Bình Thương- Xã Văn Bình- Huyện Thường Tín- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>2500292146</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CƠ KHÍ MINH TOÀN</t>
+  </si>
+  <si>
+    <t>Tổ dân phố số 4, Thị Trấn Quang Minh, Huyện Mê Linh, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>3700649116</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN FANNY VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Lô C1, khu công nghiệp Việt Hương, Phường Thuận Giao, Thị xã Thuận An, Tỉnh Bình Dương, Việt Nam</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
   <si>
     <t>Check</t>
@@ -68,7 +757,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,19 +767,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -139,6 +835,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -166,21 +877,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="8"/>
@@ -197,45 +893,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -522,7 +1230,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,236 +1244,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{627115FB-1C13-4357-B663-50817F7E1116}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{C70705B5-692C-45E2-8C36-A91ED367D831}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F6993AE0-6585-47E4-8A66-88C180D8DE5A}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F5F4199F-FB44-425D-8A74-B800480FA37D}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -776,31 +1484,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -809,232 +1516,224 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
+      <c r="G1" s="10" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F421531F-474C-4E95-9952-9484F0605958}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{74092DF5-69A0-48E9-AC0A-AB8202BEE9D1}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{930ED820-E054-4372-AFFE-559ADF3F1978}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:D1 F1" xr:uid="{9C7ABB55-0AE0-467D-9530-A8A3FC698884}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1044,28 +1743,1851 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC947EF-5CC4-42EE-90D8-4EE4B6CF799A}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CA4A08-7BCB-48E9-A795-2712D547D108}">
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BD4C4FE-5512-4DE1-97B2-088E1AC35E7F}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB72503-F109-486C-83DA-239685A789EA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A2" sqref="A2:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC947EF-5CC4-42EE-90D8-4EE4B6CF799A}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB72503-F109-486C-83DA-239685A789EA}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{10F7178C-5A6C-4DBB-9B34-EAD00ABD596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B7A2520-4CC5-417F-92B0-E7CF330EFAE7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{BF312F72-50FD-47FF-B4E0-1728E6627000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E70DD7-A0B5-476D-91DE-60478C02B369}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78564A-C011-486B-8C72-466E1C71D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4692" yWindow="348" windowWidth="17820" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -18,28 +18,19 @@
     <sheet name="Danh mục cũ" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$465</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -62,6 +53,312 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>0101159195</t>
+  </si>
+  <si>
+    <t>0101360697</t>
+  </si>
+  <si>
+    <t>0108683721</t>
+  </si>
+  <si>
+    <t>2300994740</t>
+  </si>
+  <si>
+    <t>0109126547</t>
+  </si>
+  <si>
+    <t>0310439453-001</t>
+  </si>
+  <si>
+    <t>0101507727-001</t>
+  </si>
+  <si>
+    <t>0106209516</t>
+  </si>
+  <si>
+    <t>0106136096</t>
+  </si>
+  <si>
+    <t>2802850189</t>
+  </si>
+  <si>
+    <t>0104789847</t>
+  </si>
+  <si>
+    <t>0107486248</t>
+  </si>
+  <si>
+    <t>0106765288</t>
+  </si>
+  <si>
+    <t>0305616442</t>
+  </si>
+  <si>
+    <t>0109534271</t>
+  </si>
+  <si>
+    <t>0105670033</t>
+  </si>
+  <si>
+    <t>0102755063</t>
+  </si>
+  <si>
+    <t>0102343655</t>
+  </si>
+  <si>
+    <t>0313175103-001</t>
+  </si>
+  <si>
+    <t>0109642326</t>
+  </si>
+  <si>
+    <t>0107864972</t>
+  </si>
+  <si>
+    <t>0108140108</t>
+  </si>
+  <si>
+    <t>0105283179</t>
+  </si>
+  <si>
+    <t>0105957237</t>
+  </si>
+  <si>
+    <t>0107762787</t>
+  </si>
+  <si>
+    <t>0108386863</t>
+  </si>
+  <si>
+    <t>0500570248</t>
+  </si>
+  <si>
+    <t>0108715042</t>
+  </si>
+  <si>
+    <t>0102190423</t>
+  </si>
+  <si>
+    <t>0108995054</t>
+  </si>
+  <si>
+    <t>0108915796</t>
+  </si>
+  <si>
+    <t>0107322095</t>
+  </si>
+  <si>
+    <t>0106768200</t>
+  </si>
+  <si>
+    <t>0106308732</t>
+  </si>
+  <si>
+    <t>0101863203</t>
+  </si>
+  <si>
+    <t>0107998616</t>
+  </si>
+  <si>
+    <t>0107776927</t>
+  </si>
+  <si>
+    <t>0500475192</t>
+  </si>
+  <si>
+    <t>0108743064</t>
+  </si>
+  <si>
+    <t>0103867884</t>
+  </si>
+  <si>
+    <t>0312002637</t>
+  </si>
+  <si>
+    <t>0106696387</t>
+  </si>
+  <si>
+    <t>0100112437-056</t>
+  </si>
+  <si>
+    <t>0100101114-042</t>
+  </si>
+  <si>
+    <t>0106869738-002</t>
+  </si>
+  <si>
+    <t>0100112437-051</t>
+  </si>
+  <si>
+    <t>0106488901</t>
+  </si>
+  <si>
+    <t>0100956381</t>
+  </si>
+  <si>
+    <t>0102196915</t>
+  </si>
+  <si>
+    <t>0302249586-001</t>
+  </si>
+  <si>
+    <t>0300792451-004</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BKAV</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN BIỂN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
+  </si>
+  <si>
+    <t>VŨ XUÂN QUỲNH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HẢI LINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
+  </si>
+  <si>
+    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
+  </si>
+  <si>
+    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần mạng trực tuyến META</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
   </si>
 </sst>
 </file>
@@ -136,8 +433,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -488,58 +789,896 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103"/>
@@ -3809,7 +4948,7 @@
       <c r="G465"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G465" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F421531F-474C-4E95-9952-9484F0605958}">
       <formula1>0</formula1>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78564A-C011-486B-8C72-466E1C71D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC244741-81F3-4889-88A1-95EC9BEC7AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4692" yWindow="348" windowWidth="17820" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -53,312 +53,6 @@
   </si>
   <si>
     <t>Check</t>
-  </si>
-  <si>
-    <t>0101159195</t>
-  </si>
-  <si>
-    <t>0101360697</t>
-  </si>
-  <si>
-    <t>0108683721</t>
-  </si>
-  <si>
-    <t>2300994740</t>
-  </si>
-  <si>
-    <t>0109126547</t>
-  </si>
-  <si>
-    <t>0310439453-001</t>
-  </si>
-  <si>
-    <t>0101507727-001</t>
-  </si>
-  <si>
-    <t>0106209516</t>
-  </si>
-  <si>
-    <t>0106136096</t>
-  </si>
-  <si>
-    <t>2802850189</t>
-  </si>
-  <si>
-    <t>0104789847</t>
-  </si>
-  <si>
-    <t>0107486248</t>
-  </si>
-  <si>
-    <t>0106765288</t>
-  </si>
-  <si>
-    <t>0305616442</t>
-  </si>
-  <si>
-    <t>0109534271</t>
-  </si>
-  <si>
-    <t>0105670033</t>
-  </si>
-  <si>
-    <t>0102755063</t>
-  </si>
-  <si>
-    <t>0102343655</t>
-  </si>
-  <si>
-    <t>0313175103-001</t>
-  </si>
-  <si>
-    <t>0109642326</t>
-  </si>
-  <si>
-    <t>0107864972</t>
-  </si>
-  <si>
-    <t>0108140108</t>
-  </si>
-  <si>
-    <t>0105283179</t>
-  </si>
-  <si>
-    <t>0105957237</t>
-  </si>
-  <si>
-    <t>0107762787</t>
-  </si>
-  <si>
-    <t>0108386863</t>
-  </si>
-  <si>
-    <t>0500570248</t>
-  </si>
-  <si>
-    <t>0108715042</t>
-  </si>
-  <si>
-    <t>0102190423</t>
-  </si>
-  <si>
-    <t>0108995054</t>
-  </si>
-  <si>
-    <t>0108915796</t>
-  </si>
-  <si>
-    <t>0107322095</t>
-  </si>
-  <si>
-    <t>0106768200</t>
-  </si>
-  <si>
-    <t>0106308732</t>
-  </si>
-  <si>
-    <t>0101863203</t>
-  </si>
-  <si>
-    <t>0107998616</t>
-  </si>
-  <si>
-    <t>0107776927</t>
-  </si>
-  <si>
-    <t>0500475192</t>
-  </si>
-  <si>
-    <t>0108743064</t>
-  </si>
-  <si>
-    <t>0103867884</t>
-  </si>
-  <si>
-    <t>0312002637</t>
-  </si>
-  <si>
-    <t>0106696387</t>
-  </si>
-  <si>
-    <t>0100112437-056</t>
-  </si>
-  <si>
-    <t>0100101114-042</t>
-  </si>
-  <si>
-    <t>0106869738-002</t>
-  </si>
-  <si>
-    <t>0100112437-051</t>
-  </si>
-  <si>
-    <t>0106488901</t>
-  </si>
-  <si>
-    <t>0100956381</t>
-  </si>
-  <si>
-    <t>0102196915</t>
-  </si>
-  <si>
-    <t>0302249586-001</t>
-  </si>
-  <si>
-    <t>0300792451-004</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BKAV</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH LIÊN BIỂN</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
-  </si>
-  <si>
-    <t>VŨ XUÂN QUỲNH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HẢI LINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
-  </si>
-  <si>
-    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
-  </si>
-  <si>
-    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần mạng trực tuyến META</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
   </si>
 </sst>
 </file>
@@ -433,18 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +418,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,452 +473,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53"/>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC244741-81F3-4889-88A1-95EC9BEC7AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C122FCD-932B-4B13-93C6-429A9FDF1EBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Danh mục cũ" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$465</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="405">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -53,6 +53,1200 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>0101159195</t>
+  </si>
+  <si>
+    <t>0101360697</t>
+  </si>
+  <si>
+    <t>0108683721</t>
+  </si>
+  <si>
+    <t>2300994740</t>
+  </si>
+  <si>
+    <t>0109126547</t>
+  </si>
+  <si>
+    <t>0310439453-001</t>
+  </si>
+  <si>
+    <t>0101507727-001</t>
+  </si>
+  <si>
+    <t>0106209516</t>
+  </si>
+  <si>
+    <t>0106136096</t>
+  </si>
+  <si>
+    <t>2802850189</t>
+  </si>
+  <si>
+    <t>0104789847</t>
+  </si>
+  <si>
+    <t>0107486248</t>
+  </si>
+  <si>
+    <t>0106765288</t>
+  </si>
+  <si>
+    <t>0305616442</t>
+  </si>
+  <si>
+    <t>0109534271</t>
+  </si>
+  <si>
+    <t>0105670033</t>
+  </si>
+  <si>
+    <t>0102755063</t>
+  </si>
+  <si>
+    <t>0102343655</t>
+  </si>
+  <si>
+    <t>0313175103-001</t>
+  </si>
+  <si>
+    <t>0109642326</t>
+  </si>
+  <si>
+    <t>0107864972</t>
+  </si>
+  <si>
+    <t>0108140108</t>
+  </si>
+  <si>
+    <t>0105283179</t>
+  </si>
+  <si>
+    <t>0105957237</t>
+  </si>
+  <si>
+    <t>0107762787</t>
+  </si>
+  <si>
+    <t>0108386863</t>
+  </si>
+  <si>
+    <t>0500570248</t>
+  </si>
+  <si>
+    <t>0108715042</t>
+  </si>
+  <si>
+    <t>0102190423</t>
+  </si>
+  <si>
+    <t>0108995054</t>
+  </si>
+  <si>
+    <t>0108915796</t>
+  </si>
+  <si>
+    <t>0107322095</t>
+  </si>
+  <si>
+    <t>0106768200</t>
+  </si>
+  <si>
+    <t>0106308732</t>
+  </si>
+  <si>
+    <t>0101863203</t>
+  </si>
+  <si>
+    <t>0107998616</t>
+  </si>
+  <si>
+    <t>0107776927</t>
+  </si>
+  <si>
+    <t>0500475192</t>
+  </si>
+  <si>
+    <t>0108743064</t>
+  </si>
+  <si>
+    <t>0103867884</t>
+  </si>
+  <si>
+    <t>0312002637</t>
+  </si>
+  <si>
+    <t>0106696387</t>
+  </si>
+  <si>
+    <t>0100112437-056</t>
+  </si>
+  <si>
+    <t>0100101114-042</t>
+  </si>
+  <si>
+    <t>0106869738-002</t>
+  </si>
+  <si>
+    <t>0100112437-051</t>
+  </si>
+  <si>
+    <t>0106488901</t>
+  </si>
+  <si>
+    <t>0100956381</t>
+  </si>
+  <si>
+    <t>0102196915</t>
+  </si>
+  <si>
+    <t>0302249586-001</t>
+  </si>
+  <si>
+    <t>0300792451-004</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BKAV</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN BIỂN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
+  </si>
+  <si>
+    <t>VŨ XUÂN QUỲNH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HẢI LINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
+  </si>
+  <si>
+    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
+  </si>
+  <si>
+    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần mạng trực tuyến META</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mã nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Công nợ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Tổ dân phố số 5 Mễ Trì Hạ- P Mễ Trì- Q Nam Từ Liêm- TP Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0100233368</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐỨC NHÂN</t>
+  </si>
+  <si>
+    <t>Số 23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
+  </si>
+  <si>
+    <t>Số 222 Trần Duy Hưng- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - VN</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
+  </si>
+  <si>
+    <t>Lô CN7- Cụm CN Từ Liêm- P Minh Khai- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Xóm Lẽ, Thôn Tam Á, Xã Gia Đông, Huyện Thuận Thành, Tỉnh Bắc Ninh</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0102018260</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN PICO</t>
+  </si>
+  <si>
+    <t>Số 229 phố Tây Sơn, Phường Ngã Tư Sở, Quân Đống Đa, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0102042513</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ALFRESCO'S Á CHÂU</t>
+  </si>
+  <si>
+    <t>23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP THỰC PHẨM THIÊN VƯƠNG</t>
+  </si>
+  <si>
+    <t>Số 30 Nguyễn Khang- P Yên Hòa- Q Cầu Giấy- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0102265125</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIM PHÚ</t>
+  </si>
+  <si>
+    <t>SN 63- ngõ 38 Phố Ngô Sĩ Liên- P Văn Miếu- Q Đống Đa- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP DỊCH VỤ SUDICO</t>
+  </si>
+  <si>
+    <t>Tầng M3- Tòa nhà CT1- Khu đô thị Mỹ Đình- P Mỹ Đình- Q Nam Từ Liê- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0102354569</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÚC HƯNG THỊNH</t>
+  </si>
+  <si>
+    <t>Tầng 19, Tòa nhà Pacific Place, số 83B Lý Thường Kiệt - Phường Trần Hưng Đạo - Quận Hoàn Kiếm - Hà Nội.</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0102516308</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN MEDIAMART VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 29F Hai Bà Trưng - Phường Tràng Tiền - Quận Hoàn Kiếm - Hà Nội.</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0102721191</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI DỊCH VỤ CỔNG VÀNG</t>
+  </si>
+  <si>
+    <t>Số 60, phố Giang Văn Minh, Phường Đội Cấn, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Công ty TNHH xuất nhập khẩu và thương mại du lịch Ngân Hà</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0103269690</t>
+  </si>
+  <si>
+    <t>cơ quan BHXH Nam Từ Liêm</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Số 96, phố Lò Đúc, Phường Đống Mác, Quận Hai Bà Trưng, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0104017720</t>
+  </si>
+  <si>
+    <t>KBNN Thường Tín</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>0104095542</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIA NHẬT LINH SUSHIBAR</t>
+  </si>
+  <si>
+    <t>Xóm Đồi, thôn Chi Nê, Xã Trung Hòa, Huyện Chương Mỹ, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>0104157213</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN GIẢI PHÁP HỆ THỐNG THÔNG TIN ISS VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tổ 16, cụm dân cư số 5, Phường Thịnh Liệt, Quận Hoàng Mai, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0104255154</t>
+  </si>
+  <si>
+    <t>KBNN Nam Từ Liêm</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>0104625285</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI NGÂN PHÁT</t>
+  </si>
+  <si>
+    <t>Số nhà 12, ngõ 10 Láng Hạ, Phường Thành Công, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Tầng 11 tòa tháp VP Hòa Bình, 106 Hoàng Quốc Việt - Phường Nghĩa Đô - Quận Cầu Giấy - Hà Nội.</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>0104918404-002</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HÀ NỘI- CÔNG TY CỔ PHẦN DỊCH VỤ THƯƠNG MAI TỔNG HỢP VINCOMMERCE</t>
+  </si>
+  <si>
+    <t>Số 7, Đường Bằng Lăng, P Việt Hùng, Q Long Biên, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>0105075813</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KINH DOANH- TM DŨNG MINH</t>
+  </si>
+  <si>
+    <t>Ngõ 80- Phố Hoa Lâm- P Việt Hưng- Q Long Biên- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP SẢN XUẤT TM VÀ DV TÂN MAI</t>
+  </si>
+  <si>
+    <t>Số 389 Trương Định- P Tân Mai- Q Hoàng Mai- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>0105396084</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TÁP ON NHƯ NGUYỆT</t>
+  </si>
+  <si>
+    <t>Số 21- Lô 14A- Phố Trung Hòa- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - Việt Nam</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>0105790468</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VẬN TẢI TÂM PHÚ THỊNH</t>
+  </si>
+  <si>
+    <t>Tân Mỹ, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Số 25, phố Gia Quất, Phường Thượng Thanh, Quận Long Biên, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>0106129074</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP TƯ VẤN TM VÀ DỊCH VỤ VĨNH THỊNH</t>
+  </si>
+  <si>
+    <t>Thôn Viên Nội- Xã Vân Nội- Huyện Đông Anh- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Đầu tư và thương mại Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>0106136321</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN DỊCH VỤ VẬN TẢI VÀ DU LỊCH HƯNG HẢI</t>
+  </si>
+  <si>
+    <t>Số 50C, Ngõ 203, đường Trường Chinh, Phường Khương Mai, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI K&amp;K TOÀN CÂU</t>
+  </si>
+  <si>
+    <t>Số 63 đường Vạn Phúc- Tổ dân phố 8- Q Hà Đông- Hà Nội</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>0106661560</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HONEST KITCHEN VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 6, trung tâm Lotte Hà Nội, số 54 Liễu Giai - Phường Cống Vị - Quận Ba Đình - Hà Nội</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>HOÀNG VĂN ÚT</t>
+  </si>
+  <si>
+    <t>Yên Nhân- Tiên Phong- Mê Linh- Hà Nội</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>0106737918</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN KHÁNH VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Khu Tây Phu, thôn An Hạ, Xã An Thượng, Huyện Hoài Đức, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Số 15, ngõ 60, phố Yên Lạc - Phường Vĩnh Tuy - Quận Hai Bà Trưng - Hà Nội.</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 1, số 9, ngõ 850 đường Láng, Phường Láng Thượng, Quận Đống Đa, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>0106777886</t>
+  </si>
+  <si>
+    <t>Công ty TNHH 678 Hà Nôi</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>0106825441</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ TỔNG HỢP HÙNG HÀ</t>
+  </si>
+  <si>
+    <t>Số 110, Đường Nguyễn Hoàng Tôn, P Xuân La, Q Tây Hồ, TP Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>TTKD VNPT- HÀ NỘI- CN TỔNG CÔNG TY DV VIỄN THÔNG</t>
+  </si>
+  <si>
+    <t>Số 75 Đinh Tiên Hoàng- P Tràng Tiền- Q Hoàn Kiếm- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>0107315179</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU LENA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 12, Tòa nhà Licogi 13, số 164 Khuất Duy Tiến - Phường Nhân Chính - Quận Thanh Xuân - Hà Nội.</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Số 84 Kim Mã, Phường Kim Mã, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>0107414772</t>
+  </si>
+  <si>
+    <t>CÔNG TY JCF VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 9 Trần Hưng Đạo, Phường Phan Chu Trinh, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Xóm 3, thôn Phúc Lâm, Xã Phúc Lâm, Huyện Mỹ Đức, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>0107658070</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TOP</t>
+  </si>
+  <si>
+    <t>Số 15 Hàng Khay, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>0107713980</t>
+  </si>
+  <si>
+    <t>NGUYỄN XUÂN CƯỜNG</t>
+  </si>
+  <si>
+    <t>Thôn Đồi Chè- Xã Thanh Bình - Huyện Chương Mỹ- TP Hà Nội</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP THẦN BIỂN</t>
+  </si>
+  <si>
+    <t>Tầng 4- số 27 Lê Văn Lương- P Nhân Chính- Q Thanh Xuân- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Số nhà 618, ngõ 199/18, đường Hồ Tùng Mậu, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>0107939018</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dịch vụ nhà hàng Tuấn Kiệt</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0108012057</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH BIA RƯỢU VÀ NGK PHÚ SANG</t>
+  </si>
+  <si>
+    <t>Số 16 Phố Lê Quang Đạo, P Phú Đô, Q Nam Từ Liêm, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Tầng 9A, Tòa nhà Leadvisors Place, 41A Lý Thái Tổ, Phường Lý Thái Tổ, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>0108458490</t>
+  </si>
+  <si>
+    <t>Công ty TNHH đào tạo và tư vấn FAT Hà Nội</t>
+  </si>
+  <si>
+    <t>L06-03, KĐTM Dương Nội, Đương Tố Hữu, phường La Khê, quận Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>0108469573</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH DẦU KHÍ TRẦN HỒNG QUÂN</t>
+  </si>
+  <si>
+    <t>Tầng 3- Tòa tháp khách sạn-  số 36 đường Lê Đức Thọ- P Mỹ Đình 2- Q Nam Từ Liêm - TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>41 Phùng Chí Kiên, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>0108704192</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ THƯƠNG MẠI MAMA'S GROUP</t>
+  </si>
+  <si>
+    <t>B10, Dự án tổ hợp công trình hỗn hợp số 53 Triều Khúc, Phường Thanh Xuân Nam, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>0108792110</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ VÀ THƯƠNG MẠI VHQ VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 21 ngõ 466/82 Ngô Gia Tự - Phường Đức Giang - Quận Long Biên - Hà Nội.</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Số A1, Lô DD, Khu Đô thị mới Mỹ Đình - Mễ Trì, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Tầng 1, Số B2-26, Khu chức năng đô thị Thành phố Xanh, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>0109057540</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH VŨ THỊ THÚY</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>0109129509</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại dịch vụ CT Việt</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Số 19, ngõ 68A đường Đỗ Đức Dục, Phường Mễ Trì, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>0109648529</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐIỆN MÁY BẠN ĐỒNG HÀNH</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Chi nhánh Công ty TNHH Nước giải khát Coca-cola Việt Nam tại Hà Nội</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM)</t>
+  </si>
+  <si>
+    <t>Khu B- Khu đô thị mới An Phú - An Khánh- P An Phú- Quận 2- TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>0303085267-003</t>
+  </si>
+  <si>
+    <t>Chi nhánh công ty TNHH Thực phẩm Tốt Lành tại Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 324  phố Tây Sơn, phường Ngã Tư Sở, quận Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>0303217354-001</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN THẾ GIỚI DI ĐỘNG</t>
+  </si>
+  <si>
+    <t>Số 146, Phố Kim  Mã, P Kim Mã, Q Ba Đình, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Số 60, Đường Trường Sơn, P2, Q Tân Bình, TPHCM</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MTV CUNG VÀ CẦU- CN HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Số 16 Thị Cấm- P Xuân Phương- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>0311609355</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BÁN LẺ KỸ THUẬT SỐ FPT</t>
+  </si>
+  <si>
+    <t>261-263 Khánh Hội - phường 05 - Quận 4 - TP Hồ Chí Minh.</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM HORECA</t>
+  </si>
+  <si>
+    <t>49 đường số 9- Cư Xá Bình Thới- Phường 8- Quận 11- TP Hồ Chí Minh- Việt Nam</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>0313073253-001</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CESCO VIỆT NAM- CN HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Số 12- BT1- KĐT Resco- P Cổ Nhuế 2- Q Bắc Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>0313168515-006</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN PIZZA 4PS - NHÀ HÀNG PIZZA 4PS TRÀNG TIỀN</t>
+  </si>
+  <si>
+    <t>Số 43 Tràng Tiền, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>0313894637-001</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH THỰC PHẨM &amp; ĐỒ UỐNG SW</t>
+  </si>
+  <si>
+    <t>Tầng 3, tòa nhà Sân tập Golf Phương Đông, phố Tân Mỹ, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>0315161593-020</t>
+  </si>
+  <si>
+    <t>CN CÔNG TY CP TẬP ĐOÀN MAI LINH TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Lô C2C- Cụm SX tiểu thủ công nghiệp và công nghiệp nhỏ- P Dịch Vọng Hậu- Q Cầu Giấy- TP Hà Nội</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>0316554156</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KINH DOANH QUỐC TẾ KIM SƠN</t>
+  </si>
+  <si>
+    <t>15/2/15 Cầu Xéo, Phường Tân Quý, Quận Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
+  </si>
+  <si>
+    <t>Cụm CN Hà Bình Thương- Xã Văn Bình- Huyện Thường Tín- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>2500292146</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CƠ KHÍ MINH TOÀN</t>
+  </si>
+  <si>
+    <t>Tổ dân phố số 4, Thị Trấn Quang Minh, Huyện Mê Linh, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>3700649116</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN FANNY VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Lô C1, khu công nghiệp Việt Hương, Phường Thuận Giao, Thị xã Thuận An, Tỉnh Bình Dương, Việt Nam</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>HA_LIEN</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Hà Liên</t>
+  </si>
+  <si>
+    <t>13 Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>0321256130</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>HONG_HA</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Hồng Hà</t>
+  </si>
+  <si>
+    <t>41 Nguyễn Văn Cừ, Hà Nội</t>
+  </si>
+  <si>
+    <t>2222222222</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>LAN_TAN</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Lan Tân</t>
+  </si>
+  <si>
+    <t>33 Lê Lai, Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>0901065309</t>
   </si>
 </sst>
 </file>
@@ -127,14 +1321,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +1616,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2:G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,507 +1669,1147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102"/>
@@ -4250,7 +6088,11 @@
       <c r="G465"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G465" xr:uid="{F7A7C90F-2568-46BB-B22B-942BFA54FF02}">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F421531F-474C-4E95-9952-9484F0605958}">
       <formula1>0</formula1>
@@ -4268,10 +6110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC947EF-5CC4-42EE-90D8-4EE4B6CF799A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4283,7 +6125,2028 @@
     <col min="6" max="6" width="14.21875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C122FCD-932B-4B13-93C6-429A9FDF1EBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595ADA18-0FFA-4C1A-B605-CF1AF889EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="804" windowWidth="17820" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Danh mục cũ" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$465</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$494</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="405">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -55,310 +55,322 @@
     <t>Check</t>
   </si>
   <si>
+    <t>0106869738-002</t>
+  </si>
+  <si>
+    <t>0105670033</t>
+  </si>
+  <si>
+    <t>0103867884</t>
+  </si>
+  <si>
+    <t>0109642326</t>
+  </si>
+  <si>
+    <t>0102190423</t>
+  </si>
+  <si>
+    <t>0100112437-056</t>
+  </si>
+  <si>
+    <t>0100112437-051</t>
+  </si>
+  <si>
+    <t>0106765288</t>
+  </si>
+  <si>
+    <t>0100101114-042</t>
+  </si>
+  <si>
+    <t>0108915796</t>
+  </si>
+  <si>
+    <t>0107864972</t>
+  </si>
+  <si>
+    <t>0302249586-001</t>
+  </si>
+  <si>
+    <t>0108386863</t>
+  </si>
+  <si>
+    <t>0300792451-004</t>
+  </si>
+  <si>
+    <t>0102343655</t>
+  </si>
+  <si>
+    <t>0108995054</t>
+  </si>
+  <si>
+    <t>0108683721</t>
+  </si>
+  <si>
+    <t>0106696387</t>
+  </si>
+  <si>
+    <t>0105283179</t>
+  </si>
+  <si>
+    <t>0102755063</t>
+  </si>
+  <si>
+    <t>0107322095</t>
+  </si>
+  <si>
+    <t>0106488901</t>
+  </si>
+  <si>
+    <t>0312002637</t>
+  </si>
+  <si>
+    <t>0310439453-001</t>
+  </si>
+  <si>
+    <t>0305616442</t>
+  </si>
+  <si>
+    <t>0107762787</t>
+  </si>
+  <si>
+    <t>0313175103-001</t>
+  </si>
+  <si>
+    <t>0100956381</t>
+  </si>
+  <si>
     <t>0101159195</t>
   </si>
   <si>
+    <t>0106136096</t>
+  </si>
+  <si>
+    <t>0109534271</t>
+  </si>
+  <si>
+    <t>0500570248</t>
+  </si>
+  <si>
+    <t>0106768200</t>
+  </si>
+  <si>
+    <t>0108715042</t>
+  </si>
+  <si>
+    <t>2802850189</t>
+  </si>
+  <si>
+    <t>0104789847</t>
+  </si>
+  <si>
+    <t>0108743064</t>
+  </si>
+  <si>
+    <t>0107486248</t>
+  </si>
+  <si>
+    <t>0106308732</t>
+  </si>
+  <si>
+    <t>0101507727-001</t>
+  </si>
+  <si>
+    <t>0101863203</t>
+  </si>
+  <si>
+    <t>0107776927</t>
+  </si>
+  <si>
+    <t>0108140108</t>
+  </si>
+  <si>
+    <t>0102196915</t>
+  </si>
+  <si>
+    <t>0105957237</t>
+  </si>
+  <si>
+    <t>0107998616</t>
+  </si>
+  <si>
+    <t>0106209516</t>
+  </si>
+  <si>
     <t>0101360697</t>
   </si>
   <si>
-    <t>0108683721</t>
-  </si>
-  <si>
     <t>2300994740</t>
   </si>
   <si>
     <t>0109126547</t>
   </si>
   <si>
-    <t>0310439453-001</t>
-  </si>
-  <si>
-    <t>0101507727-001</t>
-  </si>
-  <si>
-    <t>0106209516</t>
-  </si>
-  <si>
-    <t>0106136096</t>
-  </si>
-  <si>
-    <t>2802850189</t>
-  </si>
-  <si>
-    <t>0104789847</t>
-  </si>
-  <si>
-    <t>0107486248</t>
-  </si>
-  <si>
-    <t>0106765288</t>
-  </si>
-  <si>
-    <t>0305616442</t>
-  </si>
-  <si>
-    <t>0109534271</t>
-  </si>
-  <si>
-    <t>0105670033</t>
-  </si>
-  <si>
-    <t>0102755063</t>
-  </si>
-  <si>
-    <t>0102343655</t>
-  </si>
-  <si>
-    <t>0313175103-001</t>
-  </si>
-  <si>
-    <t>0109642326</t>
-  </si>
-  <si>
-    <t>0107864972</t>
-  </si>
-  <si>
-    <t>0108140108</t>
-  </si>
-  <si>
-    <t>0105283179</t>
-  </si>
-  <si>
-    <t>0105957237</t>
-  </si>
-  <si>
-    <t>0107762787</t>
-  </si>
-  <si>
-    <t>0108386863</t>
-  </si>
-  <si>
-    <t>0500570248</t>
-  </si>
-  <si>
-    <t>0108715042</t>
-  </si>
-  <si>
-    <t>0102190423</t>
-  </si>
-  <si>
-    <t>0108995054</t>
-  </si>
-  <si>
-    <t>0108915796</t>
-  </si>
-  <si>
-    <t>0107322095</t>
-  </si>
-  <si>
-    <t>0106768200</t>
-  </si>
-  <si>
-    <t>0106308732</t>
-  </si>
-  <si>
-    <t>0101863203</t>
-  </si>
-  <si>
-    <t>0107998616</t>
-  </si>
-  <si>
-    <t>0107776927</t>
-  </si>
-  <si>
     <t>0500475192</t>
   </si>
   <si>
-    <t>0108743064</t>
-  </si>
-  <si>
-    <t>0103867884</t>
-  </si>
-  <si>
-    <t>0312002637</t>
-  </si>
-  <si>
-    <t>0106696387</t>
-  </si>
-  <si>
-    <t>0100112437-056</t>
-  </si>
-  <si>
-    <t>0100101114-042</t>
-  </si>
-  <si>
-    <t>0106869738-002</t>
-  </si>
-  <si>
-    <t>0100112437-051</t>
-  </si>
-  <si>
-    <t>0106488901</t>
-  </si>
-  <si>
-    <t>0100956381</t>
-  </si>
-  <si>
-    <t>0102196915</t>
-  </si>
-  <si>
-    <t>0302249586-001</t>
-  </si>
-  <si>
-    <t>0300792451-004</t>
+    <t>0109057540</t>
+  </si>
+  <si>
+    <t>0109648529</t>
+  </si>
+  <si>
+    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
   </si>
   <si>
     <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
   </si>
   <si>
+    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN BIỂN</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>VŨ XUÂN QUỲNH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần mạng trực tuyến META</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
+  </si>
+  <si>
     <t>CÔNG TY CỔ PHẦN BKAV</t>
   </si>
   <si>
-    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
-  </si>
-  <si>
     <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
   </si>
   <si>
     <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
   </si>
   <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH LIÊN BIỂN</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
-  </si>
-  <si>
-    <t>VŨ XUÂN QUỲNH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
-  </si>
-  <si>
     <t>CÔNG TY TNHH HẢI LINH</t>
   </si>
   <si>
-    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
-  </si>
-  <si>
-    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
-  </si>
-  <si>
-    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần mạng trực tuyến META</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
+    <t>HỘ KINH DOANH VŨ THỊ THÚY</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐIỆN MÁY BẠN ĐỒNG HÀNH</t>
   </si>
   <si>
     <t>STT</t>
@@ -379,18 +391,18 @@
     <t>Tổ dân phố số 5 Mễ Trì Hạ- P Mễ Trì- Q Nam Từ Liêm- TP Hà Nội</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve">0 </t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -988,12 +1000,6 @@
     <t>72</t>
   </si>
   <si>
-    <t>0109057540</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH VŨ THỊ THÚY</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -1016,12 +1022,6 @@
   </si>
   <si>
     <t>77</t>
-  </si>
-  <si>
-    <t>0109648529</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐIỆN MÁY BẠN ĐỒNG HÀNH</t>
   </si>
   <si>
     <t>78</t>
@@ -1283,22 +1283,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1321,18 +1310,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1616,7 +1599,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G365"/>
+      <selection activeCell="A2" sqref="A2:G395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,1146 +1653,1144 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G465"/>
+  <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="B56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="B60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="B61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="B63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="B64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="B65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="B66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="B67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="B68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="B69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="B70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="B71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="B72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="B73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="B74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="B75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="B76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="B77" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="B78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="B79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="B81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="B82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="B83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="B85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="B86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="B87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="B88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="B89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="B90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="B91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="B92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="B94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="B95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="B96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="B97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="B98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="B99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="B100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>55</v>
-      </c>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102"/>
@@ -6087,8 +6068,269 @@
       <c r="F465"/>
       <c r="G465"/>
     </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466"/>
+      <c r="B466"/>
+      <c r="C466"/>
+      <c r="D466"/>
+      <c r="E466"/>
+      <c r="F466"/>
+      <c r="G466"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A467"/>
+      <c r="B467"/>
+      <c r="C467"/>
+      <c r="D467"/>
+      <c r="E467"/>
+      <c r="F467"/>
+      <c r="G467"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A468"/>
+      <c r="B468"/>
+      <c r="C468"/>
+      <c r="D468"/>
+      <c r="E468"/>
+      <c r="F468"/>
+      <c r="G468"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A469"/>
+      <c r="B469"/>
+      <c r="C469"/>
+      <c r="D469"/>
+      <c r="E469"/>
+      <c r="F469"/>
+      <c r="G469"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A470"/>
+      <c r="B470"/>
+      <c r="C470"/>
+      <c r="D470"/>
+      <c r="E470"/>
+      <c r="F470"/>
+      <c r="G470"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A471"/>
+      <c r="B471"/>
+      <c r="C471"/>
+      <c r="D471"/>
+      <c r="E471"/>
+      <c r="F471"/>
+      <c r="G471"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A472"/>
+      <c r="B472"/>
+      <c r="C472"/>
+      <c r="D472"/>
+      <c r="E472"/>
+      <c r="F472"/>
+      <c r="G472"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A473"/>
+      <c r="B473"/>
+      <c r="C473"/>
+      <c r="D473"/>
+      <c r="E473"/>
+      <c r="F473"/>
+      <c r="G473"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A474"/>
+      <c r="B474"/>
+      <c r="C474"/>
+      <c r="D474"/>
+      <c r="E474"/>
+      <c r="F474"/>
+      <c r="G474"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A475"/>
+      <c r="B475"/>
+      <c r="C475"/>
+      <c r="D475"/>
+      <c r="E475"/>
+      <c r="F475"/>
+      <c r="G475"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A476"/>
+      <c r="B476"/>
+      <c r="C476"/>
+      <c r="D476"/>
+      <c r="E476"/>
+      <c r="F476"/>
+      <c r="G476"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A477"/>
+      <c r="B477"/>
+      <c r="C477"/>
+      <c r="D477"/>
+      <c r="E477"/>
+      <c r="F477"/>
+      <c r="G477"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A478"/>
+      <c r="B478"/>
+      <c r="C478"/>
+      <c r="D478"/>
+      <c r="E478"/>
+      <c r="F478"/>
+      <c r="G478"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A479"/>
+      <c r="B479"/>
+      <c r="C479"/>
+      <c r="D479"/>
+      <c r="E479"/>
+      <c r="F479"/>
+      <c r="G479"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A480"/>
+      <c r="B480"/>
+      <c r="C480"/>
+      <c r="D480"/>
+      <c r="E480"/>
+      <c r="F480"/>
+      <c r="G480"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A481"/>
+      <c r="B481"/>
+      <c r="C481"/>
+      <c r="D481"/>
+      <c r="E481"/>
+      <c r="F481"/>
+      <c r="G481"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A482"/>
+      <c r="B482"/>
+      <c r="C482"/>
+      <c r="D482"/>
+      <c r="E482"/>
+      <c r="F482"/>
+      <c r="G482"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A483"/>
+      <c r="B483"/>
+      <c r="C483"/>
+      <c r="D483"/>
+      <c r="E483"/>
+      <c r="F483"/>
+      <c r="G483"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A484"/>
+      <c r="B484"/>
+      <c r="C484"/>
+      <c r="D484"/>
+      <c r="E484"/>
+      <c r="F484"/>
+      <c r="G484"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A485"/>
+      <c r="B485"/>
+      <c r="C485"/>
+      <c r="D485"/>
+      <c r="E485"/>
+      <c r="F485"/>
+      <c r="G485"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A486"/>
+      <c r="B486"/>
+      <c r="C486"/>
+      <c r="D486"/>
+      <c r="E486"/>
+      <c r="F486"/>
+      <c r="G486"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A487"/>
+      <c r="B487"/>
+      <c r="C487"/>
+      <c r="D487"/>
+      <c r="E487"/>
+      <c r="F487"/>
+      <c r="G487"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A488"/>
+      <c r="B488"/>
+      <c r="C488"/>
+      <c r="D488"/>
+      <c r="E488"/>
+      <c r="F488"/>
+      <c r="G488"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A489"/>
+      <c r="B489"/>
+      <c r="C489"/>
+      <c r="D489"/>
+      <c r="E489"/>
+      <c r="F489"/>
+      <c r="G489"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A490"/>
+      <c r="B490"/>
+      <c r="C490"/>
+      <c r="D490"/>
+      <c r="E490"/>
+      <c r="F490"/>
+      <c r="G490"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A491"/>
+      <c r="B491"/>
+      <c r="C491"/>
+      <c r="D491"/>
+      <c r="E491"/>
+      <c r="F491"/>
+      <c r="G491"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A492"/>
+      <c r="B492"/>
+      <c r="C492"/>
+      <c r="D492"/>
+      <c r="E492"/>
+      <c r="F492"/>
+      <c r="G492"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A493"/>
+      <c r="B493"/>
+      <c r="C493"/>
+      <c r="D493"/>
+      <c r="E493"/>
+      <c r="F493"/>
+      <c r="G493"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A494"/>
+      <c r="B494"/>
+      <c r="C494"/>
+      <c r="D494"/>
+      <c r="E494"/>
+      <c r="F494"/>
+      <c r="G494"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G465" xr:uid="{F7A7C90F-2568-46BB-B22B-942BFA54FF02}">
+  <autoFilter ref="A1:G494" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
@@ -6112,8 +6354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC947EF-5CC4-42EE-90D8-4EE4B6CF799A}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6128,19 +6370,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -6148,899 +6390,899 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>39</v>
@@ -7048,642 +7290,642 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>328</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>329</v>
+        <v>112</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -7691,19 +7933,19 @@
         <v>330</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -7711,7 +7953,7 @@
         <v>332</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>333</v>
@@ -7720,10 +7962,10 @@
         <v>334</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -7740,7 +7982,7 @@
         <v>338</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>336</v>
@@ -7760,7 +8002,7 @@
         <v>342</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>340</v>
@@ -7771,19 +8013,19 @@
         <v>343</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>344</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -7791,7 +8033,7 @@
         <v>345</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>346</v>
@@ -7800,10 +8042,10 @@
         <v>347</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -7820,7 +8062,7 @@
         <v>351</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>349</v>
@@ -7831,7 +8073,7 @@
         <v>352</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>353</v>
@@ -7840,10 +8082,10 @@
         <v>354</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -7860,7 +8102,7 @@
         <v>358</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>356</v>
@@ -7880,7 +8122,7 @@
         <v>362</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>360</v>
@@ -7891,19 +8133,19 @@
         <v>363</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -7920,7 +8162,7 @@
         <v>367</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>365</v>
@@ -7940,7 +8182,7 @@
         <v>371</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>369</v>
@@ -7960,7 +8202,7 @@
         <v>375</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>373</v>
@@ -7971,19 +8213,19 @@
         <v>376</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -7991,7 +8233,7 @@
         <v>377</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>378</v>
@@ -8000,10 +8242,10 @@
         <v>379</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8011,19 +8253,19 @@
         <v>380</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8040,7 +8282,7 @@
         <v>384</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>382</v>
@@ -8051,19 +8293,19 @@
         <v>385</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8080,7 +8322,7 @@
         <v>389</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>387</v>
@@ -8100,7 +8342,7 @@
         <v>393</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>394</v>
@@ -8120,7 +8362,7 @@
         <v>398</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>399</v>
@@ -8140,7 +8382,7 @@
         <v>403</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>404</v>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595ADA18-0FFA-4C1A-B605-CF1AF889EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A27D6AE-814E-470B-96B7-D8033FD6D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="804" windowWidth="17820" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="113">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -371,882 +371,6 @@
   </si>
   <si>
     <t>CÔNG TY TNHH ĐIỆN MÁY BẠN ĐỒNG HÀNH</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mã nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Tên nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Công nợ</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Tổ dân phố số 5 Mễ Trì Hạ- P Mễ Trì- Q Nam Từ Liêm- TP Hà Nội</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">0 </t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0100233368</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐỨC NHÂN</t>
-  </si>
-  <si>
-    <t>Số 23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
-  </si>
-  <si>
-    <t>Số 222 Trần Duy Hưng- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - VN</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
-  </si>
-  <si>
-    <t>Lô CN7- Cụm CN Từ Liêm- P Minh Khai- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Xóm Lẽ, Thôn Tam Á, Xã Gia Đông, Huyện Thuận Thành, Tỉnh Bắc Ninh</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0102018260</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN PICO</t>
-  </si>
-  <si>
-    <t>Số 229 phố Tây Sơn, Phường Ngã Tư Sở, Quân Đống Đa, Thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>0102042513</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ALFRESCO'S Á CHÂU</t>
-  </si>
-  <si>
-    <t>23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP THỰC PHẨM THIÊN VƯƠNG</t>
-  </si>
-  <si>
-    <t>Số 30 Nguyễn Khang- P Yên Hòa- Q Cầu Giấy- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>0102265125</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KIM PHÚ</t>
-  </si>
-  <si>
-    <t>SN 63- ngõ 38 Phố Ngô Sĩ Liên- P Văn Miếu- Q Đống Đa- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP DỊCH VỤ SUDICO</t>
-  </si>
-  <si>
-    <t>Tầng M3- Tòa nhà CT1- Khu đô thị Mỹ Đình- P Mỹ Đình- Q Nam Từ Liê- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>0102354569</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÚC HƯNG THỊNH</t>
-  </si>
-  <si>
-    <t>Tầng 19, Tòa nhà Pacific Place, số 83B Lý Thường Kiệt - Phường Trần Hưng Đạo - Quận Hoàn Kiếm - Hà Nội.</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>0102516308</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN MEDIAMART VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Số 29F Hai Bà Trưng - Phường Tràng Tiền - Quận Hoàn Kiếm - Hà Nội.</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>0102721191</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI DỊCH VỤ CỔNG VÀNG</t>
-  </si>
-  <si>
-    <t>Số 60, phố Giang Văn Minh, Phường Đội Cấn, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Công ty TNHH xuất nhập khẩu và thương mại du lịch Ngân Hà</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>0103269690</t>
-  </si>
-  <si>
-    <t>cơ quan BHXH Nam Từ Liêm</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Số 96, phố Lò Đúc, Phường Đống Mác, Quận Hai Bà Trưng, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>0104017720</t>
-  </si>
-  <si>
-    <t>KBNN Thường Tín</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>0104095542</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH GIA NHẬT LINH SUSHIBAR</t>
-  </si>
-  <si>
-    <t>Xóm Đồi, thôn Chi Nê, Xã Trung Hòa, Huyện Chương Mỹ, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>0104157213</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN GIẢI PHÁP HỆ THỐNG THÔNG TIN ISS VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Tổ 16, cụm dân cư số 5, Phường Thịnh Liệt, Quận Hoàng Mai, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>0104255154</t>
-  </si>
-  <si>
-    <t>KBNN Nam Từ Liêm</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>0104625285</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI NGÂN PHÁT</t>
-  </si>
-  <si>
-    <t>Số nhà 12, ngõ 10 Láng Hạ, Phường Thành Công, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Tầng 11 tòa tháp VP Hòa Bình, 106 Hoàng Quốc Việt - Phường Nghĩa Đô - Quận Cầu Giấy - Hà Nội.</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>0104918404-002</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH HÀ NỘI- CÔNG TY CỔ PHẦN DỊCH VỤ THƯƠNG MAI TỔNG HỢP VINCOMMERCE</t>
-  </si>
-  <si>
-    <t>Số 7, Đường Bằng Lăng, P Việt Hùng, Q Long Biên, TP Hà Nội</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>0105075813</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KINH DOANH- TM DŨNG MINH</t>
-  </si>
-  <si>
-    <t>Ngõ 80- Phố Hoa Lâm- P Việt Hưng- Q Long Biên- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP SẢN XUẤT TM VÀ DV TÂN MAI</t>
-  </si>
-  <si>
-    <t>Số 389 Trương Định- P Tân Mai- Q Hoàng Mai- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>0105396084</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TÁP ON NHƯ NGUYỆT</t>
-  </si>
-  <si>
-    <t>Số 21- Lô 14A- Phố Trung Hòa- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - Việt Nam</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>0105790468</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VẬN TẢI TÂM PHÚ THỊNH</t>
-  </si>
-  <si>
-    <t>Tân Mỹ, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Số 25, phố Gia Quất, Phường Thượng Thanh, Quận Long Biên, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>0106129074</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP TƯ VẤN TM VÀ DỊCH VỤ VĨNH THỊNH</t>
-  </si>
-  <si>
-    <t>Thôn Viên Nội- Xã Vân Nội- Huyện Đông Anh- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Đầu tư và thương mại Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>0106136321</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN DỊCH VỤ VẬN TẢI VÀ DU LỊCH HƯNG HẢI</t>
-  </si>
-  <si>
-    <t>Số 50C, Ngõ 203, đường Trường Chinh, Phường Khương Mai, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI K&amp;K TOÀN CÂU</t>
-  </si>
-  <si>
-    <t>Số 63 đường Vạn Phúc- Tổ dân phố 8- Q Hà Đông- Hà Nội</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>0106661560</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HONEST KITCHEN VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Tầng 6, trung tâm Lotte Hà Nội, số 54 Liễu Giai - Phường Cống Vị - Quận Ba Đình - Hà Nội</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>HOÀNG VĂN ÚT</t>
-  </si>
-  <si>
-    <t>Yên Nhân- Tiên Phong- Mê Linh- Hà Nội</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>0106737918</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH LIÊN KHÁNH VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Khu Tây Phu, thôn An Hạ, Xã An Thượng, Huyện Hoài Đức, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Số 15, ngõ 60, phố Yên Lạc - Phường Vĩnh Tuy - Quận Hai Bà Trưng - Hà Nội.</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Tầng 1, số 9, ngõ 850 đường Láng, Phường Láng Thượng, Quận Đống Đa, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>0106777886</t>
-  </si>
-  <si>
-    <t>Công ty TNHH 678 Hà Nôi</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>0106825441</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DỊCH VỤ TỔNG HỢP HÙNG HÀ</t>
-  </si>
-  <si>
-    <t>Số 110, Đường Nguyễn Hoàng Tôn, P Xuân La, Q Tây Hồ, TP Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>TTKD VNPT- HÀ NỘI- CN TỔNG CÔNG TY DV VIỄN THÔNG</t>
-  </si>
-  <si>
-    <t>Số 75 Đinh Tiên Hoàng- P Tràng Tiền- Q Hoàn Kiếm- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>0107315179</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU LENA VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Tầng 12, Tòa nhà Licogi 13, số 164 Khuất Duy Tiến - Phường Nhân Chính - Quận Thanh Xuân - Hà Nội.</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Số 84 Kim Mã, Phường Kim Mã, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>0107414772</t>
-  </si>
-  <si>
-    <t>CÔNG TY JCF VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Số 9 Trần Hưng Đạo, Phường Phan Chu Trinh, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Xóm 3, thôn Phúc Lâm, Xã Phúc Lâm, Huyện Mỹ Đức, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>0107658070</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TOP</t>
-  </si>
-  <si>
-    <t>Số 15 Hàng Khay, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>0107713980</t>
-  </si>
-  <si>
-    <t>NGUYỄN XUÂN CƯỜNG</t>
-  </si>
-  <si>
-    <t>Thôn Đồi Chè- Xã Thanh Bình - Huyện Chương Mỹ- TP Hà Nội</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP THẦN BIỂN</t>
-  </si>
-  <si>
-    <t>Tầng 4- số 27 Lê Văn Lương- P Nhân Chính- Q Thanh Xuân- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Số nhà 618, ngõ 199/18, đường Hồ Tùng Mậu, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>0107939018</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Dịch vụ nhà hàng Tuấn Kiệt</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>0108012057</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH BIA RƯỢU VÀ NGK PHÚ SANG</t>
-  </si>
-  <si>
-    <t>Số 16 Phố Lê Quang Đạo, P Phú Đô, Q Nam Từ Liêm, TP Hà Nội</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Tầng 9A, Tòa nhà Leadvisors Place, 41A Lý Thái Tổ, Phường Lý Thái Tổ, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>0108458490</t>
-  </si>
-  <si>
-    <t>Công ty TNHH đào tạo và tư vấn FAT Hà Nội</t>
-  </si>
-  <si>
-    <t>L06-03, KĐTM Dương Nội, Đương Tố Hữu, phường La Khê, quận Hà Đông, Hà Nội</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>0108469573</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH DẦU KHÍ TRẦN HỒNG QUÂN</t>
-  </si>
-  <si>
-    <t>Tầng 3- Tòa tháp khách sạn-  số 36 đường Lê Đức Thọ- P Mỹ Đình 2- Q Nam Từ Liêm - TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>41 Phùng Chí Kiên, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>0108704192</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ THƯƠNG MẠI MAMA'S GROUP</t>
-  </si>
-  <si>
-    <t>B10, Dự án tổ hợp công trình hỗn hợp số 53 Triều Khúc, Phường Thanh Xuân Nam, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>0108792110</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ VÀ THƯƠNG MẠI VHQ VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Số 21 ngõ 466/82 Ngô Gia Tự - Phường Đức Giang - Quận Long Biên - Hà Nội.</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Số A1, Lô DD, Khu Đô thị mới Mỹ Đình - Mễ Trì, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Tầng 1, Số B2-26, Khu chức năng đô thị Thành phố Xanh, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>0109129509</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Thương mại dịch vụ CT Việt</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Số 19, ngõ 68A đường Đỗ Đức Dục, Phường Mễ Trì, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Chi nhánh Công ty TNHH Nước giải khát Coca-cola Việt Nam tại Hà Nội</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM)</t>
-  </si>
-  <si>
-    <t>Khu B- Khu đô thị mới An Phú - An Khánh- P An Phú- Quận 2- TP Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>0303085267-003</t>
-  </si>
-  <si>
-    <t>Chi nhánh công ty TNHH Thực phẩm Tốt Lành tại Hà Nội</t>
-  </si>
-  <si>
-    <t>Số 324  phố Tây Sơn, phường Ngã Tư Sở, quận Đống Đa, Hà Nội</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>0303217354-001</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY CỔ PHẦN THẾ GIỚI DI ĐỘNG</t>
-  </si>
-  <si>
-    <t>Số 146, Phố Kim  Mã, P Kim Mã, Q Ba Đình, TP Hà Nội</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Số 60, Đường Trường Sơn, P2, Q Tân Bình, TPHCM</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MTV CUNG VÀ CẦU- CN HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Số 16 Thị Cấm- P Xuân Phương- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>0311609355</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BÁN LẺ KỸ THUẬT SỐ FPT</t>
-  </si>
-  <si>
-    <t>261-263 Khánh Hội - phường 05 - Quận 4 - TP Hồ Chí Minh.</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THỰC PHẨM HORECA</t>
-  </si>
-  <si>
-    <t>49 đường số 9- Cư Xá Bình Thới- Phường 8- Quận 11- TP Hồ Chí Minh- Việt Nam</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>0313073253-001</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CESCO VIỆT NAM- CN HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Số 12- BT1- KĐT Resco- P Cổ Nhuế 2- Q Bắc Từ Liêm- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>0313168515-006</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY CỔ PHẦN PIZZA 4PS - NHÀ HÀNG PIZZA 4PS TRÀNG TIỀN</t>
-  </si>
-  <si>
-    <t>Số 43 Tràng Tiền, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>0313894637-001</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH THỰC PHẨM &amp; ĐỒ UỐNG SW</t>
-  </si>
-  <si>
-    <t>Tầng 3, tòa nhà Sân tập Golf Phương Đông, phố Tân Mỹ, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>0315161593-020</t>
-  </si>
-  <si>
-    <t>CN CÔNG TY CP TẬP ĐOÀN MAI LINH TẠI HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Lô C2C- Cụm SX tiểu thủ công nghiệp và công nghiệp nhỏ- P Dịch Vọng Hậu- Q Cầu Giấy- TP Hà Nội</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>0316554156</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KINH DOANH QUỐC TẾ KIM SƠN</t>
-  </si>
-  <si>
-    <t>15/2/15 Cầu Xéo, Phường Tân Quý, Quận Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
-  </si>
-  <si>
-    <t>Cụm CN Hà Bình Thương- Xã Văn Bình- Huyện Thường Tín- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>2500292146</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN CƠ KHÍ MINH TOÀN</t>
-  </si>
-  <si>
-    <t>Tổ dân phố số 4, Thị Trấn Quang Minh, Huyện Mê Linh, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>3700649116</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN FANNY VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Lô C1, khu công nghiệp Việt Hương, Phường Thuận Giao, Thị xã Thuận An, Tỉnh Bình Dương, Việt Nam</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>HA_LIEN</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Hà Liên</t>
-  </si>
-  <si>
-    <t>13 Thanh Xuân, Hà Nội</t>
-  </si>
-  <si>
-    <t>0321256130</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>HONG_HA</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Hồng Hà</t>
-  </si>
-  <si>
-    <t>41 Nguyễn Văn Cừ, Hà Nội</t>
-  </si>
-  <si>
-    <t>2222222222</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>LAN_TAN</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Lan Tân</t>
-  </si>
-  <si>
-    <t>33 Lê Lai, Ba Đình, Hà Nội</t>
-  </si>
-  <si>
-    <t>0901065309</t>
   </si>
 </sst>
 </file>
@@ -1598,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G395"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1655,7 +779,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2783,14 +1907,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102"/>
@@ -6352,7 +5478,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC947EF-5CC4-42EE-90D8-4EE4B6CF799A}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="A1:XFD1048576"/>
@@ -6367,2028 +5493,7 @@
     <col min="6" max="6" width="14.21875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A27D6AE-814E-470B-96B7-D8033FD6D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73FEF7E-32C2-4A8A-9653-F886C165D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2604" yWindow="804" windowWidth="17820" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -53,324 +53,6 @@
   </si>
   <si>
     <t>Check</t>
-  </si>
-  <si>
-    <t>0106869738-002</t>
-  </si>
-  <si>
-    <t>0105670033</t>
-  </si>
-  <si>
-    <t>0103867884</t>
-  </si>
-  <si>
-    <t>0109642326</t>
-  </si>
-  <si>
-    <t>0102190423</t>
-  </si>
-  <si>
-    <t>0100112437-056</t>
-  </si>
-  <si>
-    <t>0100112437-051</t>
-  </si>
-  <si>
-    <t>0106765288</t>
-  </si>
-  <si>
-    <t>0100101114-042</t>
-  </si>
-  <si>
-    <t>0108915796</t>
-  </si>
-  <si>
-    <t>0107864972</t>
-  </si>
-  <si>
-    <t>0302249586-001</t>
-  </si>
-  <si>
-    <t>0108386863</t>
-  </si>
-  <si>
-    <t>0300792451-004</t>
-  </si>
-  <si>
-    <t>0102343655</t>
-  </si>
-  <si>
-    <t>0108995054</t>
-  </si>
-  <si>
-    <t>0108683721</t>
-  </si>
-  <si>
-    <t>0106696387</t>
-  </si>
-  <si>
-    <t>0105283179</t>
-  </si>
-  <si>
-    <t>0102755063</t>
-  </si>
-  <si>
-    <t>0107322095</t>
-  </si>
-  <si>
-    <t>0106488901</t>
-  </si>
-  <si>
-    <t>0312002637</t>
-  </si>
-  <si>
-    <t>0310439453-001</t>
-  </si>
-  <si>
-    <t>0305616442</t>
-  </si>
-  <si>
-    <t>0107762787</t>
-  </si>
-  <si>
-    <t>0313175103-001</t>
-  </si>
-  <si>
-    <t>0100956381</t>
-  </si>
-  <si>
-    <t>0101159195</t>
-  </si>
-  <si>
-    <t>0106136096</t>
-  </si>
-  <si>
-    <t>0109534271</t>
-  </si>
-  <si>
-    <t>0500570248</t>
-  </si>
-  <si>
-    <t>0106768200</t>
-  </si>
-  <si>
-    <t>0108715042</t>
-  </si>
-  <si>
-    <t>2802850189</t>
-  </si>
-  <si>
-    <t>0104789847</t>
-  </si>
-  <si>
-    <t>0108743064</t>
-  </si>
-  <si>
-    <t>0107486248</t>
-  </si>
-  <si>
-    <t>0106308732</t>
-  </si>
-  <si>
-    <t>0101507727-001</t>
-  </si>
-  <si>
-    <t>0101863203</t>
-  </si>
-  <si>
-    <t>0107776927</t>
-  </si>
-  <si>
-    <t>0108140108</t>
-  </si>
-  <si>
-    <t>0102196915</t>
-  </si>
-  <si>
-    <t>0105957237</t>
-  </si>
-  <si>
-    <t>0107998616</t>
-  </si>
-  <si>
-    <t>0106209516</t>
-  </si>
-  <si>
-    <t>0101360697</t>
-  </si>
-  <si>
-    <t>2300994740</t>
-  </si>
-  <si>
-    <t>0109126547</t>
-  </si>
-  <si>
-    <t>0500475192</t>
-  </si>
-  <si>
-    <t>0109057540</t>
-  </si>
-  <si>
-    <t>0109648529</t>
-  </si>
-  <si>
-    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
-  </si>
-  <si>
-    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH LIÊN BIỂN</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
-  </si>
-  <si>
-    <t>VŨ XUÂN QUỲNH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần mạng trực tuyến META</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BKAV</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HẢI LINH</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH VŨ THỊ THÚY</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐIỆN MÁY BẠN ĐỒNG HÀNH</t>
   </si>
 </sst>
 </file>
@@ -722,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G394"/>
     </sheetView>
   </sheetViews>
@@ -776,11 +458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,1106 +499,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
@@ -5456,11 +4037,7 @@
       <c r="G494"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G494" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G494" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F421531F-474C-4E95-9952-9484F0605958}">
       <formula1>0</formula1>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73FEF7E-32C2-4A8A-9653-F886C165D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A937FF6-ACC9-4CA6-A1D0-A3FDA0DF5960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2604" yWindow="804" windowWidth="17820" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="401">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -53,6 +53,1188 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>0106869738-002</t>
+  </si>
+  <si>
+    <t>0105670033</t>
+  </si>
+  <si>
+    <t>0103867884</t>
+  </si>
+  <si>
+    <t>0109642326</t>
+  </si>
+  <si>
+    <t>0102190423</t>
+  </si>
+  <si>
+    <t>0100112437-056</t>
+  </si>
+  <si>
+    <t>0100112437-051</t>
+  </si>
+  <si>
+    <t>0106765288</t>
+  </si>
+  <si>
+    <t>0100101114-042</t>
+  </si>
+  <si>
+    <t>0108915796</t>
+  </si>
+  <si>
+    <t>0107864972</t>
+  </si>
+  <si>
+    <t>0302249586-001</t>
+  </si>
+  <si>
+    <t>0108386863</t>
+  </si>
+  <si>
+    <t>0300792451-004</t>
+  </si>
+  <si>
+    <t>0102343655</t>
+  </si>
+  <si>
+    <t>0108995054</t>
+  </si>
+  <si>
+    <t>0108683721</t>
+  </si>
+  <si>
+    <t>0106696387</t>
+  </si>
+  <si>
+    <t>0105283179</t>
+  </si>
+  <si>
+    <t>0102755063</t>
+  </si>
+  <si>
+    <t>0107322095</t>
+  </si>
+  <si>
+    <t>0106488901</t>
+  </si>
+  <si>
+    <t>0312002637</t>
+  </si>
+  <si>
+    <t>0310439453-001</t>
+  </si>
+  <si>
+    <t>0305616442</t>
+  </si>
+  <si>
+    <t>0107762787</t>
+  </si>
+  <si>
+    <t>0313175103-001</t>
+  </si>
+  <si>
+    <t>0100956381</t>
+  </si>
+  <si>
+    <t>0101159195</t>
+  </si>
+  <si>
+    <t>0106136096</t>
+  </si>
+  <si>
+    <t>0109534271</t>
+  </si>
+  <si>
+    <t>0500570248</t>
+  </si>
+  <si>
+    <t>0106768200</t>
+  </si>
+  <si>
+    <t>0108715042</t>
+  </si>
+  <si>
+    <t>2802850189</t>
+  </si>
+  <si>
+    <t>0104789847</t>
+  </si>
+  <si>
+    <t>0108743064</t>
+  </si>
+  <si>
+    <t>0107486248</t>
+  </si>
+  <si>
+    <t>0106308732</t>
+  </si>
+  <si>
+    <t>0101507727-001</t>
+  </si>
+  <si>
+    <t>0101863203</t>
+  </si>
+  <si>
+    <t>0107776927</t>
+  </si>
+  <si>
+    <t>0108140108</t>
+  </si>
+  <si>
+    <t>0102196915</t>
+  </si>
+  <si>
+    <t>0105957237</t>
+  </si>
+  <si>
+    <t>0107998616</t>
+  </si>
+  <si>
+    <t>0106209516</t>
+  </si>
+  <si>
+    <t>0101360697</t>
+  </si>
+  <si>
+    <t>2300994740</t>
+  </si>
+  <si>
+    <t>0109126547</t>
+  </si>
+  <si>
+    <t>0500475192</t>
+  </si>
+  <si>
+    <t>0109057540</t>
+  </si>
+  <si>
+    <t>0109648529</t>
+  </si>
+  <si>
+    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN BIỂN</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>VŨ XUÂN QUỲNH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần mạng trực tuyến META</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BKAV</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HẢI LINH</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH VŨ THỊ THÚY</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐIỆN MÁY BẠN ĐỒNG HÀNH</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mã nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Công nợ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Tổ dân phố số 5 Mễ Trì Hạ- P Mễ Trì- Q Nam Từ Liêm- TP Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0100233368</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐỨC NHÂN</t>
+  </si>
+  <si>
+    <t>Số 23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
+  </si>
+  <si>
+    <t>Số 222 Trần Duy Hưng- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - VN</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
+  </si>
+  <si>
+    <t>Lô CN7- Cụm CN Từ Liêm- P Minh Khai- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Xóm Lẽ, Thôn Tam Á, Xã Gia Đông, Huyện Thuận Thành, Tỉnh Bắc Ninh</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0102018260</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN PICO</t>
+  </si>
+  <si>
+    <t>Số 229 phố Tây Sơn, Phường Ngã Tư Sở, Quân Đống Đa, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0102042513</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ALFRESCO'S Á CHÂU</t>
+  </si>
+  <si>
+    <t>23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP THỰC PHẨM THIÊN VƯƠNG</t>
+  </si>
+  <si>
+    <t>Số 30 Nguyễn Khang- P Yên Hòa- Q Cầu Giấy- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0102265125</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIM PHÚ</t>
+  </si>
+  <si>
+    <t>SN 63- ngõ 38 Phố Ngô Sĩ Liên- P Văn Miếu- Q Đống Đa- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP DỊCH VỤ SUDICO</t>
+  </si>
+  <si>
+    <t>Tầng M3- Tòa nhà CT1- Khu đô thị Mỹ Đình- P Mỹ Đình- Q Nam Từ Liê- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0102354569</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÚC HƯNG THỊNH</t>
+  </si>
+  <si>
+    <t>Tầng 19, Tòa nhà Pacific Place, số 83B Lý Thường Kiệt - Phường Trần Hưng Đạo - Quận Hoàn Kiếm - Hà Nội.</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0102516308</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN MEDIAMART VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 29F Hai Bà Trưng - Phường Tràng Tiền - Quận Hoàn Kiếm - Hà Nội.</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0102721191</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI DỊCH VỤ CỔNG VÀNG</t>
+  </si>
+  <si>
+    <t>Số 60, phố Giang Văn Minh, Phường Đội Cấn, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Công ty TNHH xuất nhập khẩu và thương mại du lịch Ngân Hà</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0103269690</t>
+  </si>
+  <si>
+    <t>cơ quan BHXH Nam Từ Liêm</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Số 96, phố Lò Đúc, Phường Đống Mác, Quận Hai Bà Trưng, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0104017720</t>
+  </si>
+  <si>
+    <t>KBNN Thường Tín</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>0104095542</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIA NHẬT LINH SUSHIBAR</t>
+  </si>
+  <si>
+    <t>Xóm Đồi, thôn Chi Nê, Xã Trung Hòa, Huyện Chương Mỹ, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>0104157213</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN GIẢI PHÁP HỆ THỐNG THÔNG TIN ISS VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tổ 16, cụm dân cư số 5, Phường Thịnh Liệt, Quận Hoàng Mai, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0104255154</t>
+  </si>
+  <si>
+    <t>KBNN Nam Từ Liêm</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>0104625285</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI NGÂN PHÁT</t>
+  </si>
+  <si>
+    <t>Số nhà 12, ngõ 10 Láng Hạ, Phường Thành Công, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Tầng 11 tòa tháp VP Hòa Bình, 106 Hoàng Quốc Việt - Phường Nghĩa Đô - Quận Cầu Giấy - Hà Nội.</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>0104918404-002</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HÀ NỘI- CÔNG TY CỔ PHẦN DỊCH VỤ THƯƠNG MAI TỔNG HỢP VINCOMMERCE</t>
+  </si>
+  <si>
+    <t>Số 7, Đường Bằng Lăng, P Việt Hùng, Q Long Biên, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>0105075813</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KINH DOANH- TM DŨNG MINH</t>
+  </si>
+  <si>
+    <t>Ngõ 80- Phố Hoa Lâm- P Việt Hưng- Q Long Biên- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP SẢN XUẤT TM VÀ DV TÂN MAI</t>
+  </si>
+  <si>
+    <t>Số 389 Trương Định- P Tân Mai- Q Hoàng Mai- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>0105396084</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TÁP ON NHƯ NGUYỆT</t>
+  </si>
+  <si>
+    <t>Số 21- Lô 14A- Phố Trung Hòa- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - Việt Nam</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>0105790468</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VẬN TẢI TÂM PHÚ THỊNH</t>
+  </si>
+  <si>
+    <t>Tân Mỹ, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Số 25, phố Gia Quất, Phường Thượng Thanh, Quận Long Biên, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>0106129074</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP TƯ VẤN TM VÀ DỊCH VỤ VĨNH THỊNH</t>
+  </si>
+  <si>
+    <t>Thôn Viên Nội- Xã Vân Nội- Huyện Đông Anh- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Đầu tư và thương mại Dongyangnongsan</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>0106136321</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN DỊCH VỤ VẬN TẢI VÀ DU LỊCH HƯNG HẢI</t>
+  </si>
+  <si>
+    <t>Số 50C, Ngõ 203, đường Trường Chinh, Phường Khương Mai, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI K&amp;K TOÀN CÂU</t>
+  </si>
+  <si>
+    <t>Số 63 đường Vạn Phúc- Tổ dân phố 8- Q Hà Đông- Hà Nội</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>0106661560</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HONEST KITCHEN VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 6, trung tâm Lotte Hà Nội, số 54 Liễu Giai - Phường Cống Vị - Quận Ba Đình - Hà Nội</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>HOÀNG VĂN ÚT</t>
+  </si>
+  <si>
+    <t>Yên Nhân- Tiên Phong- Mê Linh- Hà Nội</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>0106737918</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN KHÁNH VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Khu Tây Phu, thôn An Hạ, Xã An Thượng, Huyện Hoài Đức, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Số 15, ngõ 60, phố Yên Lạc - Phường Vĩnh Tuy - Quận Hai Bà Trưng - Hà Nội.</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 1, số 9, ngõ 850 đường Láng, Phường Láng Thượng, Quận Đống Đa, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>0106777886</t>
+  </si>
+  <si>
+    <t>Công ty TNHH 678 Hà Nôi</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>0106825441</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ TỔNG HỢP HÙNG HÀ</t>
+  </si>
+  <si>
+    <t>Số 110, Đường Nguyễn Hoàng Tôn, P Xuân La, Q Tây Hồ, TP Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>TTKD VNPT- HÀ NỘI- CN TỔNG CÔNG TY DV VIỄN THÔNG</t>
+  </si>
+  <si>
+    <t>Số 75 Đinh Tiên Hoàng- P Tràng Tiền- Q Hoàn Kiếm- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>0107315179</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU LENA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Tầng 12, Tòa nhà Licogi 13, số 164 Khuất Duy Tiến - Phường Nhân Chính - Quận Thanh Xuân - Hà Nội.</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Số 84 Kim Mã, Phường Kim Mã, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>0107414772</t>
+  </si>
+  <si>
+    <t>CÔNG TY JCF VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 9 Trần Hưng Đạo, Phường Phan Chu Trinh, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Xóm 3, thôn Phúc Lâm, Xã Phúc Lâm, Huyện Mỹ Đức, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>0107658070</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TOP</t>
+  </si>
+  <si>
+    <t>Số 15 Hàng Khay, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>0107713980</t>
+  </si>
+  <si>
+    <t>NGUYỄN XUÂN CƯỜNG</t>
+  </si>
+  <si>
+    <t>Thôn Đồi Chè- Xã Thanh Bình - Huyện Chương Mỹ- TP Hà Nội</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP THẦN BIỂN</t>
+  </si>
+  <si>
+    <t>Tầng 4- số 27 Lê Văn Lương- P Nhân Chính- Q Thanh Xuân- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Số nhà 618, ngõ 199/18, đường Hồ Tùng Mậu, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>0107939018</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dịch vụ nhà hàng Tuấn Kiệt</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0108012057</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH BIA RƯỢU VÀ NGK PHÚ SANG</t>
+  </si>
+  <si>
+    <t>Số 16 Phố Lê Quang Đạo, P Phú Đô, Q Nam Từ Liêm, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Tầng 9A, Tòa nhà Leadvisors Place, 41A Lý Thái Tổ, Phường Lý Thái Tổ, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>0108458490</t>
+  </si>
+  <si>
+    <t>Công ty TNHH đào tạo và tư vấn FAT Hà Nội</t>
+  </si>
+  <si>
+    <t>L06-03, KĐTM Dương Nội, Đương Tố Hữu, phường La Khê, quận Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>0108469573</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH DẦU KHÍ TRẦN HỒNG QUÂN</t>
+  </si>
+  <si>
+    <t>Tầng 3- Tòa tháp khách sạn-  số 36 đường Lê Đức Thọ- P Mỹ Đình 2- Q Nam Từ Liêm - TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>41 Phùng Chí Kiên, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>0108704192</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ THƯƠNG MẠI MAMA'S GROUP</t>
+  </si>
+  <si>
+    <t>B10, Dự án tổ hợp công trình hỗn hợp số 53 Triều Khúc, Phường Thanh Xuân Nam, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>0108792110</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ VÀ THƯƠNG MẠI VHQ VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Số 21 ngõ 466/82 Ngô Gia Tự - Phường Đức Giang - Quận Long Biên - Hà Nội.</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Số A1, Lô DD, Khu Đô thị mới Mỹ Đình - Mễ Trì, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Tầng 1, Số B2-26, Khu chức năng đô thị Thành phố Xanh, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>0109129509</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại dịch vụ CT Việt</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Số 19, ngõ 68A đường Đỗ Đức Dục, Phường Mễ Trì, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Chi nhánh Công ty TNHH Nước giải khát Coca-cola Việt Nam tại Hà Nội</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM)</t>
+  </si>
+  <si>
+    <t>Khu B- Khu đô thị mới An Phú - An Khánh- P An Phú- Quận 2- TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>0303085267-003</t>
+  </si>
+  <si>
+    <t>Chi nhánh công ty TNHH Thực phẩm Tốt Lành tại Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 324  phố Tây Sơn, phường Ngã Tư Sở, quận Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>0303217354-001</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN THẾ GIỚI DI ĐỘNG</t>
+  </si>
+  <si>
+    <t>Số 146, Phố Kim  Mã, P Kim Mã, Q Ba Đình, TP Hà Nội</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Số 60, Đường Trường Sơn, P2, Q Tân Bình, TPHCM</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MTV CUNG VÀ CẦU- CN HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Số 16 Thị Cấm- P Xuân Phương- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>0311609355</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BÁN LẺ KỸ THUẬT SỐ FPT</t>
+  </si>
+  <si>
+    <t>261-263 Khánh Hội - phường 05 - Quận 4 - TP Hồ Chí Minh.</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THỰC PHẨM HORECA</t>
+  </si>
+  <si>
+    <t>49 đường số 9- Cư Xá Bình Thới- Phường 8- Quận 11- TP Hồ Chí Minh- Việt Nam</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>0313073253-001</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CESCO VIỆT NAM- CN HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Số 12- BT1- KĐT Resco- P Cổ Nhuế 2- Q Bắc Từ Liêm- TP Hà Nội- Việt Nam</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>0313168515-006</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN PIZZA 4PS - NHÀ HÀNG PIZZA 4PS TRÀNG TIỀN</t>
+  </si>
+  <si>
+    <t>Số 43 Tràng Tiền, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>0315161593-020</t>
+  </si>
+  <si>
+    <t>CN CÔNG TY CP TẬP ĐOÀN MAI LINH TẠI HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Lô C2C- Cụm SX tiểu thủ công nghiệp và công nghiệp nhỏ- P Dịch Vọng Hậu- Q Cầu Giấy- TP Hà Nội</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>0316554156</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KINH DOANH QUỐC TẾ KIM SƠN</t>
+  </si>
+  <si>
+    <t>15/2/15 Cầu Xéo, Phường Tân Quý, Quận Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
+  </si>
+  <si>
+    <t>Cụm CN Hà Bình Thương- Xã Văn Bình- Huyện Thường Tín- TP Hà Nội- VN</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>2500292146</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN CƠ KHÍ MINH TOÀN</t>
+  </si>
+  <si>
+    <t>Tổ dân phố số 4, Thị Trấn Quang Minh, Huyện Mê Linh, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>3700649116</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN FANNY VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Lô C1, khu công nghiệp Việt Hương, Phường Thuận Giao, Thị xã Thuận An, Tỉnh Bình Dương, Việt Nam</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>HA_LIEN</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Hà Liên</t>
+  </si>
+  <si>
+    <t>13 Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>0321256130</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>HONG_HA</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Hồng Hà</t>
+  </si>
+  <si>
+    <t>41 Nguyễn Văn Cừ, Hà Nội</t>
+  </si>
+  <si>
+    <t>2222222222</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>LAN_TAN</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Lan Tân</t>
+  </si>
+  <si>
+    <t>33 Lê Lai, Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>0901065309</t>
   </si>
 </sst>
 </file>
@@ -405,7 +1587,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G394"/>
+      <selection activeCell="A2" sqref="A2:G441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,9 +1640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -499,6 +1682,1012 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
@@ -4037,7 +6226,11 @@
       <c r="G494"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G494" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G494" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F421531F-474C-4E95-9952-9484F0605958}">
       <formula1>0</formula1>
@@ -4055,7 +6248,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC947EF-5CC4-42EE-90D8-4EE4B6CF799A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="A1:XFD1048576"/>
@@ -4070,7 +6263,2008 @@
     <col min="6" max="6" width="14.21875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A937FF6-ACC9-4CA6-A1D0-A3FDA0DF5960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB12E08D-7F5C-40D9-817D-DBF0D38E12A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2604" yWindow="804" windowWidth="17820" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Mã nhà cung cấp (*)</t>
   </si>
@@ -53,1188 +53,6 @@
   </si>
   <si>
     <t>Check</t>
-  </si>
-  <si>
-    <t>0106869738-002</t>
-  </si>
-  <si>
-    <t>0105670033</t>
-  </si>
-  <si>
-    <t>0103867884</t>
-  </si>
-  <si>
-    <t>0109642326</t>
-  </si>
-  <si>
-    <t>0102190423</t>
-  </si>
-  <si>
-    <t>0100112437-056</t>
-  </si>
-  <si>
-    <t>0100112437-051</t>
-  </si>
-  <si>
-    <t>0106765288</t>
-  </si>
-  <si>
-    <t>0100101114-042</t>
-  </si>
-  <si>
-    <t>0108915796</t>
-  </si>
-  <si>
-    <t>0107864972</t>
-  </si>
-  <si>
-    <t>0302249586-001</t>
-  </si>
-  <si>
-    <t>0108386863</t>
-  </si>
-  <si>
-    <t>0300792451-004</t>
-  </si>
-  <si>
-    <t>0102343655</t>
-  </si>
-  <si>
-    <t>0108995054</t>
-  </si>
-  <si>
-    <t>0108683721</t>
-  </si>
-  <si>
-    <t>0106696387</t>
-  </si>
-  <si>
-    <t>0105283179</t>
-  </si>
-  <si>
-    <t>0102755063</t>
-  </si>
-  <si>
-    <t>0107322095</t>
-  </si>
-  <si>
-    <t>0106488901</t>
-  </si>
-  <si>
-    <t>0312002637</t>
-  </si>
-  <si>
-    <t>0310439453-001</t>
-  </si>
-  <si>
-    <t>0305616442</t>
-  </si>
-  <si>
-    <t>0107762787</t>
-  </si>
-  <si>
-    <t>0313175103-001</t>
-  </si>
-  <si>
-    <t>0100956381</t>
-  </si>
-  <si>
-    <t>0101159195</t>
-  </si>
-  <si>
-    <t>0106136096</t>
-  </si>
-  <si>
-    <t>0109534271</t>
-  </si>
-  <si>
-    <t>0500570248</t>
-  </si>
-  <si>
-    <t>0106768200</t>
-  </si>
-  <si>
-    <t>0108715042</t>
-  </si>
-  <si>
-    <t>2802850189</t>
-  </si>
-  <si>
-    <t>0104789847</t>
-  </si>
-  <si>
-    <t>0108743064</t>
-  </si>
-  <si>
-    <t>0107486248</t>
-  </si>
-  <si>
-    <t>0106308732</t>
-  </si>
-  <si>
-    <t>0101507727-001</t>
-  </si>
-  <si>
-    <t>0101863203</t>
-  </si>
-  <si>
-    <t>0107776927</t>
-  </si>
-  <si>
-    <t>0108140108</t>
-  </si>
-  <si>
-    <t>0102196915</t>
-  </si>
-  <si>
-    <t>0105957237</t>
-  </si>
-  <si>
-    <t>0107998616</t>
-  </si>
-  <si>
-    <t>0106209516</t>
-  </si>
-  <si>
-    <t>0101360697</t>
-  </si>
-  <si>
-    <t>2300994740</t>
-  </si>
-  <si>
-    <t>0109126547</t>
-  </si>
-  <si>
-    <t>0500475192</t>
-  </si>
-  <si>
-    <t>0109057540</t>
-  </si>
-  <si>
-    <t>0109648529</t>
-  </si>
-  <si>
-    <t>Trung tâm Kinh doanh VNPT - Hà Nội - Chi nhánh Tổng công ty Dịch vụ Viễn thông</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ DẦU KHÍ HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN TOÀN CẦU HKH</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM THIÊN VƯƠNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công </t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI TÂN LỘC PHÁT</t>
-  </si>
-  <si>
-    <t>CÔNG TY ĐIỆN LỰC NAM TỪ LIÊM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI ĐẦU TƯ VIỆT PHÁP</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẠI THÀNH PHÁT TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM) TẠI TP.HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HÃNG KIỂM TOÁN AMA</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH NƯỚC GIẢI KHÁT COCA-COLA VIỆT NAM TẠI HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DỊCH VỤ SUDICO</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH WOW VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH VẬN TẢI CÔNG NGHỆ MAI LINH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HOÀNG VĂN ÚT</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN SẢN XUẤT, THƯƠNG MẠI VÀ DỊCH VỤ TÂN MAI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU VÀ THƯƠNG MẠI DU LỊCH NGÂN HÀ</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ PHÁT TRIỂN THƯƠNG MẠI VÀ DỊCH VỤ HUYỀN ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI K &amp; K TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM HORECA</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CUNG VÀ CẦU - CHI NHÁNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THANG MÁY MITSUBISHI VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THẦN BIỂN</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH HÀ NỘI - CÔNG TY CỔ PHẦN MAISON RETAIL MANAGEMENT INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH Đầu Tư Và Thương Mại Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH M&amp;T FOOD HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH GIẢI PHÁP ĐỒ UỐNG VIỆT VNBS</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ GREEN HOME</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN IPOS.VN</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐIỆN LẠNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH LIÊN BIỂN</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DẦU KHÍ S.K.T</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT KHĂN GIẤY TRUNG THÀNH TẠI BẮC NINH</t>
-  </si>
-  <si>
-    <t>VŨ XUÂN QUỲNH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CUNG ỨNG KHÍ HÓA LỎNG HÀ NỘI</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN VÀ ĐẦU TƯ TOÀN CẦU</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần mạng trực tuyến META</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THỰC PHẨM SẠCH THƯƠNG MẠI T&amp;P</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CÔNG NGHỆ THƯƠNG MẠI VÀ DỊCH VỤ THÀNH VINH</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DŨNG ĐẠT</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BKAV</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÁT TRIỂN THƯƠNG MẠI VÀ XÂY DỰNG AN PHÁT</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HẢI LINH</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH VŨ THỊ THÚY</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐIỆN MÁY BẠN ĐỒNG HÀNH</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mã nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Tên nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Công nợ</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Tổ dân phố số 5 Mễ Trì Hạ- P Mễ Trì- Q Nam Từ Liêm- TP Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 </t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thành Công</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Ngân hàng TMCP Ngoại thương Việt Nam - Chi nhánh Thăng Long</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0100233368</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐỨC NHÂN</t>
-  </si>
-  <si>
-    <t>Số 23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM QUỐC TẾ VÀ DỊCH VỤ SIÊU THỊ BIG C THĂNG LONG</t>
-  </si>
-  <si>
-    <t>Số 222 Trần Duy Hưng- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - VN</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ ĐẦU TƯ ĐÔNG HIỆP</t>
-  </si>
-  <si>
-    <t>Lô CN7- Cụm CN Từ Liêm- P Minh Khai- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Xóm Lẽ, Thôn Tam Á, Xã Gia Đông, Huyện Thuận Thành, Tỉnh Bắc Ninh</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0102018260</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN PICO</t>
-  </si>
-  <si>
-    <t>Số 229 phố Tây Sơn, Phường Ngã Tư Sở, Quân Đống Đa, Thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>0102042513</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ALFRESCO'S Á CHÂU</t>
-  </si>
-  <si>
-    <t>23L Hai Bà Trưng, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP THỰC PHẨM THIÊN VƯƠNG</t>
-  </si>
-  <si>
-    <t>Số 30 Nguyễn Khang- P Yên Hòa- Q Cầu Giấy- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>0102265125</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KIM PHÚ</t>
-  </si>
-  <si>
-    <t>SN 63- ngõ 38 Phố Ngô Sĩ Liên- P Văn Miếu- Q Đống Đa- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP DỊCH VỤ SUDICO</t>
-  </si>
-  <si>
-    <t>Tầng M3- Tòa nhà CT1- Khu đô thị Mỹ Đình- P Mỹ Đình- Q Nam Từ Liê- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>0102354569</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÚC HƯNG THỊNH</t>
-  </si>
-  <si>
-    <t>Tầng 19, Tòa nhà Pacific Place, số 83B Lý Thường Kiệt - Phường Trần Hưng Đạo - Quận Hoàn Kiếm - Hà Nội.</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>0102516308</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN MEDIAMART VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Số 29F Hai Bà Trưng - Phường Tràng Tiền - Quận Hoàn Kiếm - Hà Nội.</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>0102721191</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI DỊCH VỤ CỔNG VÀNG</t>
-  </si>
-  <si>
-    <t>Số 60, phố Giang Văn Minh, Phường Đội Cấn, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Công ty TNHH xuất nhập khẩu và thương mại du lịch Ngân Hà</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>0103269690</t>
-  </si>
-  <si>
-    <t>cơ quan BHXH Nam Từ Liêm</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Số 96, phố Lò Đúc, Phường Đống Mác, Quận Hai Bà Trưng, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>0104017720</t>
-  </si>
-  <si>
-    <t>KBNN Thường Tín</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>0104095542</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH GIA NHẬT LINH SUSHIBAR</t>
-  </si>
-  <si>
-    <t>Xóm Đồi, thôn Chi Nê, Xã Trung Hòa, Huyện Chương Mỹ, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>0104157213</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN GIẢI PHÁP HỆ THỐNG THÔNG TIN ISS VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Tổ 16, cụm dân cư số 5, Phường Thịnh Liệt, Quận Hoàng Mai, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>0104255154</t>
-  </si>
-  <si>
-    <t>KBNN Nam Từ Liêm</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>0104625285</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI NGÂN PHÁT</t>
-  </si>
-  <si>
-    <t>Số nhà 12, ngõ 10 Láng Hạ, Phường Thành Công, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Tầng 11 tòa tháp VP Hòa Bình, 106 Hoàng Quốc Việt - Phường Nghĩa Đô - Quận Cầu Giấy - Hà Nội.</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>0104918404-002</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH HÀ NỘI- CÔNG TY CỔ PHẦN DỊCH VỤ THƯƠNG MAI TỔNG HỢP VINCOMMERCE</t>
-  </si>
-  <si>
-    <t>Số 7, Đường Bằng Lăng, P Việt Hùng, Q Long Biên, TP Hà Nội</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>0105075813</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KINH DOANH- TM DŨNG MINH</t>
-  </si>
-  <si>
-    <t>Ngõ 80- Phố Hoa Lâm- P Việt Hưng- Q Long Biên- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP SẢN XUẤT TM VÀ DV TÂN MAI</t>
-  </si>
-  <si>
-    <t>Số 389 Trương Định- P Tân Mai- Q Hoàng Mai- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>0105396084</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TÁP ON NHƯ NGUYỆT</t>
-  </si>
-  <si>
-    <t>Số 21- Lô 14A- Phố Trung Hòa- P Trung Hòa- Q Cầu Giấy- TP Hà Nội - Việt Nam</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>0105790468</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VẬN TẢI TÂM PHÚ THỊNH</t>
-  </si>
-  <si>
-    <t>Tân Mỹ, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Số 25, phố Gia Quất, Phường Thượng Thanh, Quận Long Biên, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>0106129074</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP TƯ VẤN TM VÀ DỊCH VỤ VĨNH THỊNH</t>
-  </si>
-  <si>
-    <t>Thôn Viên Nội- Xã Vân Nội- Huyện Đông Anh- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Đầu tư và thương mại Dongyangnongsan</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>0106136321</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN DỊCH VỤ VẬN TẢI VÀ DU LỊCH HƯNG HẢI</t>
-  </si>
-  <si>
-    <t>Số 50C, Ngõ 203, đường Trường Chinh, Phường Khương Mai, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI K&amp;K TOÀN CÂU</t>
-  </si>
-  <si>
-    <t>Số 63 đường Vạn Phúc- Tổ dân phố 8- Q Hà Đông- Hà Nội</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>0106661560</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH HONEST KITCHEN VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Tầng 6, trung tâm Lotte Hà Nội, số 54 Liễu Giai - Phường Cống Vị - Quận Ba Đình - Hà Nội</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>HOÀNG VĂN ÚT</t>
-  </si>
-  <si>
-    <t>Yên Nhân- Tiên Phong- Mê Linh- Hà Nội</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>0106737918</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH LIÊN KHÁNH VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Khu Tây Phu, thôn An Hạ, Xã An Thượng, Huyện Hoài Đức, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Số 15, ngõ 60, phố Yên Lạc - Phường Vĩnh Tuy - Quận Hai Bà Trưng - Hà Nội.</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THỰC PHẨM QUỐC TẾ VIMEX VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Tầng 1, số 9, ngõ 850 đường Láng, Phường Láng Thượng, Quận Đống Đa, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>0106777886</t>
-  </si>
-  <si>
-    <t>Công ty TNHH 678 Hà Nôi</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>0106825441</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DỊCH VỤ TỔNG HỢP HÙNG HÀ</t>
-  </si>
-  <si>
-    <t>Số 110, Đường Nguyễn Hoàng Tôn, P Xuân La, Q Tây Hồ, TP Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>TTKD VNPT- HÀ NỘI- CN TỔNG CÔNG TY DV VIỄN THÔNG</t>
-  </si>
-  <si>
-    <t>Số 75 Đinh Tiên Hoàng- P Tràng Tiền- Q Hoàn Kiếm- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>0107315179</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU LENA VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Tầng 12, Tòa nhà Licogi 13, số 164 Khuất Duy Tiến - Phường Nhân Chính - Quận Thanh Xuân - Hà Nội.</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Số 84 Kim Mã, Phường Kim Mã, Quận Ba Đình, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>0107414772</t>
-  </si>
-  <si>
-    <t>CÔNG TY JCF VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Số 9 Trần Hưng Đạo, Phường Phan Chu Trinh, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Xóm 3, thôn Phúc Lâm, Xã Phúc Lâm, Huyện Mỹ Đức, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>0107658070</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TOP</t>
-  </si>
-  <si>
-    <t>Số 15 Hàng Khay, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>0107713980</t>
-  </si>
-  <si>
-    <t>NGUYỄN XUÂN CƯỜNG</t>
-  </si>
-  <si>
-    <t>Thôn Đồi Chè- Xã Thanh Bình - Huyện Chương Mỹ- TP Hà Nội</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP THẦN BIỂN</t>
-  </si>
-  <si>
-    <t>Tầng 4- số 27 Lê Văn Lương- P Nhân Chính- Q Thanh Xuân- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Số nhà 618, ngõ 199/18, đường Hồ Tùng Mậu, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>0107939018</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Dịch vụ nhà hàng Tuấn Kiệt</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>0108012057</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH BIA RƯỢU VÀ NGK PHÚ SANG</t>
-  </si>
-  <si>
-    <t>Số 16 Phố Lê Quang Đạo, P Phú Đô, Q Nam Từ Liêm, TP Hà Nội</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Tầng 9A, Tòa nhà Leadvisors Place, 41A Lý Thái Tổ, Phường Lý Thái Tổ, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>0108458490</t>
-  </si>
-  <si>
-    <t>Công ty TNHH đào tạo và tư vấn FAT Hà Nội</t>
-  </si>
-  <si>
-    <t>L06-03, KĐTM Dương Nội, Đương Tố Hữu, phường La Khê, quận Hà Đông, Hà Nội</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>0108469573</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH DẦU KHÍ TRẦN HỒNG QUÂN</t>
-  </si>
-  <si>
-    <t>Tầng 3- Tòa tháp khách sạn-  số 36 đường Lê Đức Thọ- P Mỹ Đình 2- Q Nam Từ Liêm - TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>41 Phùng Chí Kiên, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>0108704192</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ THƯƠNG MẠI MAMA'S GROUP</t>
-  </si>
-  <si>
-    <t>B10, Dự án tổ hợp công trình hỗn hợp số 53 Triều Khúc, Phường Thanh Xuân Nam, Quận Thanh Xuân, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>0108792110</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH ĐẦU TƯ VÀ THƯƠNG MẠI VHQ VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Số 21 ngõ 466/82 Ngô Gia Tự - Phường Đức Giang - Quận Long Biên - Hà Nội.</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Số A1, Lô DD, Khu Đô thị mới Mỹ Đình - Mễ Trì, Phường Mỹ Đình 1, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Tầng 1, Số B2-26, Khu chức năng đô thị Thành phố Xanh, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>0109129509</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Thương mại dịch vụ CT Việt</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Số 19, ngõ 68A đường Đỗ Đức Dục, Phường Mễ Trì, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Chi nhánh Công ty TNHH Nước giải khát Coca-cola Việt Nam tại Hà Nội</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MM MEGA MARKET (VIỆT NAM)</t>
-  </si>
-  <si>
-    <t>Khu B- Khu đô thị mới An Phú - An Khánh- P An Phú- Quận 2- TP Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>0303085267-003</t>
-  </si>
-  <si>
-    <t>Chi nhánh công ty TNHH Thực phẩm Tốt Lành tại Hà Nội</t>
-  </si>
-  <si>
-    <t>Số 324  phố Tây Sơn, phường Ngã Tư Sở, quận Đống Đa, Hà Nội</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>0303217354-001</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY CỔ PHẦN THẾ GIỚI DI ĐỘNG</t>
-  </si>
-  <si>
-    <t>Số 146, Phố Kim  Mã, P Kim Mã, Q Ba Đình, TP Hà Nội</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Số 60, Đường Trường Sơn, P2, Q Tân Bình, TPHCM</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MTV CUNG VÀ CẦU- CN HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Số 16 Thị Cấm- P Xuân Phương- Q Nam Từ Liêm- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>0311609355</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BÁN LẺ KỸ THUẬT SỐ FPT</t>
-  </si>
-  <si>
-    <t>261-263 Khánh Hội - phường 05 - Quận 4 - TP Hồ Chí Minh.</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THỰC PHẨM HORECA</t>
-  </si>
-  <si>
-    <t>49 đường số 9- Cư Xá Bình Thới- Phường 8- Quận 11- TP Hồ Chí Minh- Việt Nam</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>0313073253-001</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CESCO VIỆT NAM- CN HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Số 12- BT1- KĐT Resco- P Cổ Nhuế 2- Q Bắc Từ Liêm- TP Hà Nội- Việt Nam</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>0313168515-006</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH CÔNG TY CỔ PHẦN PIZZA 4PS - NHÀ HÀNG PIZZA 4PS TRÀNG TIỀN</t>
-  </si>
-  <si>
-    <t>Số 43 Tràng Tiền, Phường Tràng Tiền, Quận Hoàn Kiếm, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>0315161593-020</t>
-  </si>
-  <si>
-    <t>CN CÔNG TY CP TẬP ĐOÀN MAI LINH TẠI HÀ NỘI</t>
-  </si>
-  <si>
-    <t>Lô C2C- Cụm SX tiểu thủ công nghiệp và công nghiệp nhỏ- P Dịch Vọng Hậu- Q Cầu Giấy- TP Hà Nội</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>0316554156</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KINH DOANH QUỐC TẾ KIM SƠN</t>
-  </si>
-  <si>
-    <t>15/2/15 Cầu Xéo, Phường Tân Quý, Quận Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP CÔNG NGHỆ THỰC PHẨM VINH ANH</t>
-  </si>
-  <si>
-    <t>Cụm CN Hà Bình Thương- Xã Văn Bình- Huyện Thường Tín- TP Hà Nội- VN</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>2500292146</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN CƠ KHÍ MINH TOÀN</t>
-  </si>
-  <si>
-    <t>Tổ dân phố số 4, Thị Trấn Quang Minh, Huyện Mê Linh, Thành phố Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>3700649116</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN FANNY VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Lô C1, khu công nghiệp Việt Hương, Phường Thuận Giao, Thị xã Thuận An, Tỉnh Bình Dương, Việt Nam</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>HA_LIEN</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Hà Liên</t>
-  </si>
-  <si>
-    <t>13 Thanh Xuân, Hà Nội</t>
-  </si>
-  <si>
-    <t>0321256130</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>HONG_HA</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Hồng Hà</t>
-  </si>
-  <si>
-    <t>41 Nguyễn Văn Cừ, Hà Nội</t>
-  </si>
-  <si>
-    <t>2222222222</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>LAN_TAN</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Lan Tân</t>
-  </si>
-  <si>
-    <t>33 Lê Lai, Ba Đình, Hà Nội</t>
-  </si>
-  <si>
-    <t>0901065309</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D51B57-DEC2-4BA9-A98C-5DAC0771ED9E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G441"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,11 +458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,589 +499,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
@@ -6226,11 +4460,7 @@
       <c r="G494"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G494" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G494" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nếu 1 nhà cung cấp thuộc nhiều nhóm KH vui lòng phân cách mã nhóm bằng dấu ;" sqref="E1" xr:uid="{F421531F-474C-4E95-9952-9484F0605958}">
       <formula1>0</formula1>
@@ -6248,7 +4478,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC947EF-5CC4-42EE-90D8-4EE4B6CF799A}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="A1:XFD1048576"/>
@@ -6263,2008 +4493,7 @@
     <col min="6" max="6" width="14.21875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\RPA Project\RPA_AmberMuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE5DEAB-4394-41DD-B06E-530BF7642470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4918C4C3-B53F-4BBD-B416-82F8ADA6431F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="804" windowWidth="17820" windowHeight="11436" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="804" windowWidth="17820" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD54"/>
     </sheetView>
   </sheetViews>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC947EF-5CC4-42EE-90D8-4EE4B6CF799A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09287E-BE6C-4116-8961-CA58C07114DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FFBE77-2B7D-461D-9206-EA24F5BEDCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="804" windowWidth="17820" windowHeight="11436" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2448" yWindow="360" windowWidth="17820" windowHeight="11436" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="3" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G141"/>
+      <selection activeCell="A2" sqref="A2:G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Output/Danh muc NCC mau.xlsx
+++ b/Output/Danh muc NCC mau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JOB\RPA Project\RPA_AmberMuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FFBE77-2B7D-461D-9206-EA24F5BEDCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92495B2-DEFB-44FA-A6DA-6D8D53E0B3A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2448" yWindow="360" windowWidth="17820" windowHeight="11436" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Danh mục mới'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G147"/>
+      <selection activeCell="A2" sqref="A2:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +501,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:G1" xr:uid="{4B9A0918-F2C7-4B4C-A4B5-FC3816D76855}">
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
